--- a/ANGLE/19.xlsx
+++ b/ANGLE/19.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="991">
   <si>
     <t>电话号码</t>
   </si>
@@ -25,3413 +24,2978 @@
     <t>number</t>
   </si>
   <si>
-    <t>13013883735</t>
-  </si>
-  <si>
-    <t>13773233376</t>
-  </si>
-  <si>
-    <t>13812733916</t>
-  </si>
-  <si>
-    <t>13402687234</t>
-  </si>
-  <si>
-    <t>13812767810</t>
-  </si>
-  <si>
-    <t>13291096818</t>
-  </si>
-  <si>
-    <t>13776283303</t>
-  </si>
-  <si>
-    <t>13906256662</t>
-  </si>
-  <si>
-    <t>18862242826</t>
-  </si>
-  <si>
-    <t>13812715773</t>
-  </si>
-  <si>
-    <t>13606226561</t>
-  </si>
-  <si>
-    <t>18606202049</t>
-  </si>
-  <si>
-    <t>15862426803</t>
-  </si>
-  <si>
-    <t>15962588116</t>
-  </si>
-  <si>
-    <t>13962598307</t>
-  </si>
-  <si>
-    <t>13913085959</t>
-  </si>
-  <si>
-    <t>15962550755</t>
-  </si>
-  <si>
-    <t>13906248025</t>
-  </si>
-  <si>
-    <t>13862546220</t>
-  </si>
-  <si>
-    <t>18912714588</t>
-  </si>
-  <si>
-    <t>13812810665</t>
-  </si>
-  <si>
-    <t>13806257876</t>
-  </si>
-  <si>
-    <t>13706226671</t>
-  </si>
-  <si>
-    <t>18962697903</t>
-  </si>
-  <si>
-    <t>13656216125</t>
-  </si>
-  <si>
-    <t>18662333172</t>
-  </si>
-  <si>
-    <t>13862508708</t>
-  </si>
-  <si>
-    <t>13915583237</t>
-  </si>
-  <si>
-    <t>13862502208</t>
-  </si>
-  <si>
-    <t>13706256881</t>
-  </si>
-  <si>
-    <t>13405260070</t>
-  </si>
-  <si>
-    <t>15366296198</t>
-  </si>
-  <si>
-    <t>13451667671</t>
-  </si>
-  <si>
-    <t>13962195108</t>
-  </si>
-  <si>
-    <t>13801561220</t>
-  </si>
-  <si>
-    <t>13862201578</t>
-  </si>
-  <si>
-    <t>18914084138</t>
-  </si>
-  <si>
-    <t>13606250775</t>
-  </si>
-  <si>
-    <t>13451583158</t>
-  </si>
-  <si>
-    <t>13584407407</t>
-  </si>
-  <si>
-    <t>13862350032</t>
-  </si>
-  <si>
-    <t>15862559333</t>
-  </si>
-  <si>
-    <t>13701551294</t>
-  </si>
-  <si>
-    <t>15190021840</t>
-  </si>
-  <si>
-    <t>18913585832</t>
-  </si>
-  <si>
-    <t>13706254948</t>
-  </si>
-  <si>
-    <t>13812730198</t>
-  </si>
-  <si>
-    <t>13776078008</t>
-  </si>
-  <si>
-    <t>13921979392</t>
-  </si>
-  <si>
-    <t>18994382556</t>
-  </si>
-  <si>
-    <t>13862085036</t>
-  </si>
-  <si>
-    <t>13962161199</t>
-  </si>
-  <si>
-    <t>13913511117</t>
-  </si>
-  <si>
-    <t>13962353306</t>
-  </si>
-  <si>
-    <t>13584281317</t>
-  </si>
-  <si>
-    <t>13506223893</t>
-  </si>
-  <si>
-    <t>13951117973</t>
-  </si>
-  <si>
-    <t>13506203398</t>
-  </si>
-  <si>
-    <t>13913711151</t>
-  </si>
-  <si>
-    <t>13951123990</t>
-  </si>
-  <si>
-    <t>13906251520</t>
-  </si>
-  <si>
-    <t>13862197951</t>
-  </si>
-  <si>
-    <t>18913166529</t>
-  </si>
-  <si>
-    <t>13862556408</t>
-  </si>
-  <si>
-    <t>13913703786</t>
-  </si>
-  <si>
-    <t>13913735176</t>
-  </si>
-  <si>
-    <t>13913097324</t>
-  </si>
-  <si>
-    <t>15950969501</t>
-  </si>
-  <si>
-    <t>13812669420</t>
-  </si>
-  <si>
-    <t>13382542020</t>
-  </si>
-  <si>
-    <t>15206257588</t>
-  </si>
-  <si>
-    <t>13773297020</t>
-  </si>
-  <si>
-    <t>13901566916</t>
-  </si>
-  <si>
-    <t>15062625183</t>
-  </si>
-  <si>
-    <t>13584406948</t>
-  </si>
-  <si>
-    <t>13776037508</t>
-  </si>
-  <si>
-    <t>13951119966</t>
-  </si>
-  <si>
-    <t>13913280870</t>
-  </si>
-  <si>
-    <t>13912748600</t>
-  </si>
-  <si>
-    <t>15162644964</t>
-  </si>
-  <si>
-    <t>13962284555</t>
-  </si>
-  <si>
-    <t>13506228610</t>
-  </si>
-  <si>
-    <t>13773255545</t>
-  </si>
-  <si>
-    <t>13584252192</t>
-  </si>
-  <si>
-    <t>13706134575</t>
-  </si>
-  <si>
-    <t>13063893344</t>
-  </si>
-  <si>
-    <t>13301557222</t>
-  </si>
-  <si>
-    <t>13906209545</t>
-  </si>
-  <si>
-    <t>15950039119</t>
-  </si>
-  <si>
-    <t>13801556286</t>
-  </si>
-  <si>
-    <t>13771998737</t>
-  </si>
-  <si>
-    <t>13771783677</t>
-  </si>
-  <si>
-    <t>13706215555</t>
-  </si>
-  <si>
-    <t>13862502066</t>
-  </si>
-  <si>
-    <t>13601562835</t>
-  </si>
-  <si>
-    <t>13906203515</t>
-  </si>
-  <si>
-    <t>15850050937</t>
-  </si>
-  <si>
-    <t>13812962915</t>
-  </si>
-  <si>
-    <t>13295118970</t>
-  </si>
-  <si>
-    <t>13962331166</t>
-  </si>
-  <si>
-    <t>13913126863</t>
-  </si>
-  <si>
-    <t>13814575078</t>
-  </si>
-  <si>
-    <t>13812731655</t>
-  </si>
-  <si>
-    <t>13140978850</t>
-  </si>
-  <si>
-    <t>13913513555</t>
-  </si>
-  <si>
-    <t>13906247598</t>
-  </si>
-  <si>
-    <t>13906245062</t>
-  </si>
-  <si>
-    <t>18606242282</t>
-  </si>
-  <si>
-    <t>13921965488</t>
-  </si>
-  <si>
-    <t>13906245765</t>
-  </si>
-  <si>
-    <t>15906259772</t>
-  </si>
-  <si>
-    <t>13915537399</t>
-  </si>
-  <si>
-    <t>13625294335</t>
-  </si>
-  <si>
-    <t>13814850073</t>
-  </si>
-  <si>
-    <t>13862207898</t>
-  </si>
-  <si>
-    <t>18501511747</t>
-  </si>
-  <si>
-    <t>13771889281</t>
-  </si>
-  <si>
-    <t>13773011734</t>
-  </si>
-  <si>
-    <t>13814559873</t>
-  </si>
-  <si>
-    <t>13915479665</t>
-  </si>
-  <si>
-    <t>18936093186</t>
-  </si>
-  <si>
-    <t>13405208670</t>
-  </si>
-  <si>
-    <t>13306136876</t>
-  </si>
-  <si>
-    <t>13806209121</t>
-  </si>
-  <si>
-    <t>13390830326</t>
-  </si>
-  <si>
-    <t>13625289821</t>
-  </si>
-  <si>
-    <t>13004571898</t>
-  </si>
-  <si>
-    <t>13057488888</t>
-  </si>
-  <si>
-    <t>13606139778</t>
-  </si>
-  <si>
-    <t>13862090991</t>
-  </si>
-  <si>
-    <t>13801558191</t>
-  </si>
-  <si>
-    <t>13913721755</t>
-  </si>
-  <si>
-    <t>18912706332</t>
-  </si>
-  <si>
-    <t>13801560035</t>
-  </si>
-  <si>
-    <t>13584848338</t>
-  </si>
-  <si>
-    <t>13962184912</t>
-  </si>
-  <si>
-    <t>15895656065</t>
-  </si>
-  <si>
-    <t>13912765576</t>
-  </si>
-  <si>
-    <t>13812981899</t>
-  </si>
-  <si>
-    <t>13815295352</t>
-  </si>
-  <si>
-    <t>15262662656</t>
-  </si>
-  <si>
-    <t>13913670387</t>
-  </si>
-  <si>
-    <t>13584415668</t>
-  </si>
-  <si>
-    <t>15962588905</t>
-  </si>
-  <si>
-    <t>13962580512</t>
-  </si>
-  <si>
-    <t>13962509298</t>
-  </si>
-  <si>
-    <t>13906243315</t>
-  </si>
-  <si>
-    <t>13912785325</t>
-  </si>
-  <si>
-    <t>18962516019</t>
-  </si>
-  <si>
-    <t>13732651862</t>
-  </si>
-  <si>
-    <t>13706258995</t>
-  </si>
-  <si>
-    <t>13606208578</t>
-  </si>
-  <si>
-    <t>13913117156</t>
-  </si>
-  <si>
-    <t>13912705687</t>
-  </si>
-  <si>
-    <t>13913062222</t>
-  </si>
-  <si>
-    <t>13962122998</t>
-  </si>
-  <si>
-    <t>13812787464</t>
-  </si>
-  <si>
-    <t>13584806237</t>
-  </si>
-  <si>
-    <t>15190590670</t>
-  </si>
-  <si>
-    <t>15150270686</t>
-  </si>
-  <si>
-    <t>13606253900</t>
-  </si>
-  <si>
-    <t>13862184955</t>
-  </si>
-  <si>
-    <t>13962179669</t>
-  </si>
-  <si>
-    <t>13151476106</t>
-  </si>
-  <si>
-    <t>13862109584</t>
-  </si>
-  <si>
-    <t>18914049107</t>
-  </si>
-  <si>
-    <t>13952443305</t>
-  </si>
-  <si>
-    <t>13962150793</t>
-  </si>
-  <si>
-    <t>13912646438</t>
-  </si>
-  <si>
-    <t>13706222299</t>
-  </si>
-  <si>
-    <t>13913083379</t>
-  </si>
-  <si>
-    <t>18896508136</t>
-  </si>
-  <si>
-    <t>13962267666</t>
-  </si>
-  <si>
-    <t>15850069035</t>
-  </si>
-  <si>
-    <t>15851698528</t>
-  </si>
-  <si>
-    <t>13913133508</t>
-  </si>
-  <si>
-    <t>15851444886</t>
-  </si>
-  <si>
-    <t>13776022011</t>
-  </si>
-  <si>
-    <t>15250076444</t>
-  </si>
-  <si>
-    <t>13773247341</t>
-  </si>
-  <si>
-    <t>13706258069</t>
-  </si>
-  <si>
-    <t>13812761283</t>
-  </si>
-  <si>
-    <t>13701553683</t>
-  </si>
-  <si>
-    <t>18662239670</t>
-  </si>
-  <si>
-    <t>15862590127</t>
-  </si>
-  <si>
-    <t>13906258336</t>
-  </si>
-  <si>
-    <t>13506206300</t>
-  </si>
-  <si>
-    <t>15862519121</t>
-  </si>
-  <si>
-    <t>13773257123</t>
-  </si>
-  <si>
-    <t>13063889739</t>
-  </si>
-  <si>
-    <t>15370053917</t>
-  </si>
-  <si>
-    <t>13812721886</t>
-  </si>
-  <si>
-    <t>13606254759</t>
-  </si>
-  <si>
-    <t>13656234747</t>
-  </si>
-  <si>
-    <t>13913719781</t>
-  </si>
-  <si>
-    <t>13901559555</t>
-  </si>
-  <si>
-    <t>13306250655</t>
-  </si>
-  <si>
-    <t>15995409883</t>
-  </si>
-  <si>
-    <t>13862100610</t>
-  </si>
-  <si>
-    <t>13402628819</t>
-  </si>
-  <si>
-    <t>13962579889</t>
-  </si>
-  <si>
-    <t>13771994705</t>
-  </si>
-  <si>
-    <t>13914001009</t>
-  </si>
-  <si>
-    <t>13771831897</t>
-  </si>
-  <si>
-    <t>13621579711</t>
-  </si>
-  <si>
-    <t>13962599222</t>
-  </si>
-  <si>
-    <t>13862158875</t>
-  </si>
-  <si>
-    <t>13962168295</t>
-  </si>
-  <si>
-    <t>13962162805</t>
-  </si>
-  <si>
-    <t>15850117275</t>
-  </si>
-  <si>
-    <t>13801559996</t>
-  </si>
-  <si>
-    <t>13912705597</t>
-  </si>
-  <si>
-    <t>13913739999</t>
-  </si>
-  <si>
-    <t>13812626108</t>
-  </si>
-  <si>
-    <t>13862576507</t>
-  </si>
-  <si>
-    <t>13706251383</t>
-  </si>
-  <si>
-    <t>15995412576</t>
-  </si>
-  <si>
-    <t>13912747961</t>
-  </si>
-  <si>
-    <t>13962220702</t>
-  </si>
-  <si>
-    <t>13913718962</t>
-  </si>
-  <si>
-    <t>15851503316</t>
-  </si>
-  <si>
-    <t>13806252577</t>
-  </si>
-  <si>
-    <t>13962193931</t>
-  </si>
-  <si>
-    <t>13913503541</t>
-  </si>
-  <si>
-    <t>13656240933</t>
-  </si>
-  <si>
-    <t>13862513189</t>
-  </si>
-  <si>
-    <t>13862049050</t>
-  </si>
-  <si>
-    <t>13063896132</t>
-  </si>
-  <si>
-    <t>18021612532</t>
-  </si>
-  <si>
-    <t>13174111290</t>
-  </si>
-  <si>
-    <t>13606251026</t>
-  </si>
-  <si>
-    <t>15062684086</t>
-  </si>
-  <si>
-    <t>13913596528</t>
-  </si>
-  <si>
-    <t>13773236007</t>
-  </si>
-  <si>
-    <t>13382137338</t>
-  </si>
-  <si>
-    <t>13906253745</t>
-  </si>
-  <si>
-    <t>13776303814</t>
-  </si>
-  <si>
-    <t>13706251236</t>
-  </si>
-  <si>
-    <t>15306256029</t>
-  </si>
-  <si>
-    <t>13706250362</t>
-  </si>
-  <si>
-    <t>13815296087</t>
-  </si>
-  <si>
-    <t>18761981781</t>
-  </si>
-  <si>
-    <t>13776248616</t>
-  </si>
-  <si>
-    <t>13962458172</t>
-  </si>
-  <si>
-    <t>13306132988</t>
-  </si>
-  <si>
-    <t>13621571108</t>
-  </si>
-  <si>
-    <t>13915554548</t>
-  </si>
-  <si>
-    <t>13814893850</t>
-  </si>
-  <si>
-    <t>18962568001</t>
-  </si>
-  <si>
-    <t>13601562122</t>
-  </si>
-  <si>
-    <t>13921997073</t>
-  </si>
-  <si>
-    <t>13962210588</t>
-  </si>
-  <si>
-    <t>13862515732</t>
-  </si>
-  <si>
-    <t>13814844502</t>
-  </si>
-  <si>
-    <t>15606218662</t>
-  </si>
-  <si>
-    <t>13063861559</t>
-  </si>
-  <si>
-    <t>13776222325</t>
-  </si>
-  <si>
-    <t>13962678815</t>
-  </si>
-  <si>
-    <t>18013164107</t>
-  </si>
-  <si>
-    <t>13912635461</t>
-  </si>
-  <si>
-    <t>13606138340</t>
-  </si>
-  <si>
-    <t>13862057320</t>
-  </si>
-  <si>
-    <t>15995668602</t>
-  </si>
-  <si>
-    <t>13913510229</t>
-  </si>
-  <si>
-    <t>15162399117</t>
-  </si>
-  <si>
-    <t>13913711181</t>
-  </si>
-  <si>
-    <t>13862533865</t>
-  </si>
-  <si>
-    <t>18351107779</t>
-  </si>
-  <si>
-    <t>13584802391</t>
-  </si>
-  <si>
-    <t>13913294557</t>
-  </si>
-  <si>
-    <t>13052862728</t>
-  </si>
-  <si>
-    <t>13506222373</t>
-  </si>
-  <si>
-    <t>13584815237</t>
-  </si>
-  <si>
-    <t>13962577473</t>
-  </si>
-  <si>
-    <t>13511608540</t>
-  </si>
-  <si>
-    <t>13962184299</t>
-  </si>
-  <si>
-    <t>15995556998</t>
-  </si>
-  <si>
-    <t>13861301917</t>
-  </si>
-  <si>
-    <t>15862495713</t>
-  </si>
-  <si>
-    <t>13270962181</t>
-  </si>
-  <si>
-    <t>13013891517</t>
-  </si>
-  <si>
-    <t>13912751267</t>
-  </si>
-  <si>
-    <t>13962538523</t>
-  </si>
-  <si>
-    <t>13962265781</t>
-  </si>
-  <si>
-    <t>18606251330</t>
-  </si>
-  <si>
-    <t>13806201503</t>
-  </si>
-  <si>
-    <t>13801558687</t>
-  </si>
-  <si>
-    <t>15995533310</t>
-  </si>
-  <si>
-    <t>13812748838</t>
-  </si>
-  <si>
-    <t>13771667666</t>
-  </si>
-  <si>
-    <t>13506265828</t>
-  </si>
-  <si>
-    <t>13962130255</t>
-  </si>
-  <si>
-    <t>13913747222</t>
-  </si>
-  <si>
-    <t>13063892275</t>
-  </si>
-  <si>
-    <t>13402605241</t>
-  </si>
-  <si>
-    <t>13306250705</t>
-  </si>
-  <si>
-    <t>15190013909</t>
-  </si>
-  <si>
-    <t>13771893730</t>
-  </si>
-  <si>
-    <t>13862038726</t>
-  </si>
-  <si>
-    <t>13814867683</t>
-  </si>
-  <si>
-    <t>13771727507</t>
-  </si>
-  <si>
-    <t>13270966126</t>
-  </si>
-  <si>
-    <t>15358806511</t>
-  </si>
-  <si>
-    <t>13913101782</t>
-  </si>
-  <si>
-    <t>13862529499</t>
-  </si>
-  <si>
-    <t>13584476936</t>
-  </si>
-  <si>
-    <t>13402509049</t>
-  </si>
-  <si>
-    <t>13621563866</t>
-  </si>
-  <si>
-    <t>13814858928</t>
-  </si>
-  <si>
-    <t>13013763218</t>
-  </si>
-  <si>
-    <t>13073315459</t>
-  </si>
-  <si>
-    <t>15895500766</t>
-  </si>
-  <si>
-    <t>13706205452</t>
-  </si>
-  <si>
-    <t>18106137005</t>
-  </si>
-  <si>
-    <t>13773205587</t>
-  </si>
-  <si>
-    <t>13776103931</t>
-  </si>
-  <si>
-    <t>13952413282</t>
-  </si>
-  <si>
-    <t>13901558987</t>
-  </si>
-  <si>
-    <t>18994434132</t>
-  </si>
-  <si>
-    <t>13656253792</t>
-  </si>
-  <si>
-    <t>13601552309</t>
-  </si>
-  <si>
-    <t>15995566620</t>
-  </si>
-  <si>
-    <t>13913168110</t>
-  </si>
-  <si>
-    <t>18913153386</t>
-  </si>
-  <si>
-    <t>15950957036</t>
-  </si>
-  <si>
-    <t>13656258676</t>
-  </si>
-  <si>
-    <t>13962593946</t>
-  </si>
-  <si>
-    <t>13862500122</t>
-  </si>
-  <si>
-    <t>13706259288</t>
-  </si>
-  <si>
-    <t>13913090472</t>
-  </si>
-  <si>
-    <t>13862405313</t>
-  </si>
-  <si>
-    <t>18662173686</t>
-  </si>
-  <si>
-    <t>13606227686</t>
-  </si>
-  <si>
-    <t>13801561730</t>
-  </si>
-  <si>
-    <t>18012683730</t>
-  </si>
-  <si>
-    <t>15962185626</t>
-  </si>
-  <si>
-    <t>13506211070</t>
-  </si>
-  <si>
-    <t>13906250595</t>
-  </si>
-  <si>
-    <t>13913186303</t>
-  </si>
-  <si>
-    <t>15895649653</t>
-  </si>
-  <si>
-    <t>13771672784</t>
-  </si>
-  <si>
-    <t>13771696885</t>
-  </si>
-  <si>
-    <t>13915466708</t>
-  </si>
-  <si>
-    <t>13952418581</t>
-  </si>
-  <si>
-    <t>13646225810</t>
-  </si>
-  <si>
-    <t>13328001765</t>
-  </si>
-  <si>
-    <t>13806257768</t>
-  </si>
-  <si>
-    <t>15850182261</t>
-  </si>
-  <si>
-    <t>13915692207</t>
-  </si>
-  <si>
-    <t>15051573913</t>
-  </si>
-  <si>
-    <t>18962667885</t>
-  </si>
-  <si>
-    <t>13606250075</t>
-  </si>
-  <si>
-    <t>13951122088</t>
-  </si>
-  <si>
-    <t>15306256275</t>
-  </si>
-  <si>
-    <t>13606214413</t>
-  </si>
-  <si>
-    <t>13806222410</t>
-  </si>
-  <si>
-    <t>18862197357</t>
-  </si>
-  <si>
-    <t>15862350164</t>
-  </si>
-  <si>
-    <t>13606253343</t>
-  </si>
-  <si>
-    <t>13915518364</t>
-  </si>
-  <si>
-    <t>13962550351</t>
-  </si>
-  <si>
-    <t>13914066598</t>
-  </si>
-  <si>
-    <t>13862140360</t>
-  </si>
-  <si>
-    <t>18912712799</t>
-  </si>
-  <si>
-    <t>13913728729</t>
-  </si>
-  <si>
-    <t>13912765698</t>
-  </si>
-  <si>
-    <t>15306256637</t>
-  </si>
-  <si>
-    <t>13962103071</t>
-  </si>
-  <si>
-    <t>13962166438</t>
-  </si>
-  <si>
-    <t>13862542569</t>
-  </si>
-  <si>
-    <t>13013880583</t>
-  </si>
-  <si>
-    <t>13218161960</t>
-  </si>
-  <si>
-    <t>13962558539</t>
-  </si>
-  <si>
-    <t>13913620325</t>
-  </si>
-  <si>
-    <t>13801564095</t>
-  </si>
-  <si>
-    <t>13205149463</t>
-  </si>
-  <si>
-    <t>18626298003</t>
-  </si>
-  <si>
-    <t>13616253100</t>
-  </si>
-  <si>
-    <t>18601436303</t>
-  </si>
-  <si>
-    <t>15895542656</t>
-  </si>
-  <si>
-    <t>13776306519</t>
-  </si>
-  <si>
-    <t>13606255631</t>
-  </si>
-  <si>
-    <t>15850068960</t>
-  </si>
-  <si>
-    <t>13328012803</t>
-  </si>
-  <si>
-    <t>13771890885</t>
-  </si>
-  <si>
-    <t>15050112403</t>
-  </si>
-  <si>
-    <t>13952416116</t>
-  </si>
-  <si>
-    <t>13913728757</t>
-  </si>
-  <si>
-    <t>13656255813</t>
-  </si>
-  <si>
-    <t>15895696623</t>
-  </si>
-  <si>
-    <t>13706229767</t>
-  </si>
-  <si>
-    <t>15501577768</t>
-  </si>
-  <si>
-    <t>13812727988</t>
-  </si>
-  <si>
-    <t>13771930505</t>
-  </si>
-  <si>
-    <t>13706229672</t>
-  </si>
-  <si>
-    <t>15862381381</t>
-  </si>
-  <si>
-    <t>13913151341</t>
-  </si>
-  <si>
-    <t>13506255827</t>
-  </si>
-  <si>
-    <t>13906135324</t>
-  </si>
-  <si>
-    <t>13606220160</t>
-  </si>
-  <si>
-    <t>13773239258</t>
-  </si>
-  <si>
-    <t>15851574778</t>
-  </si>
-  <si>
-    <t>13921988810</t>
-  </si>
-  <si>
-    <t>13921958350</t>
-  </si>
-  <si>
-    <t>13656233515</t>
-  </si>
-  <si>
-    <t>13814825782</t>
-  </si>
-  <si>
-    <t>18962671721</t>
-  </si>
-  <si>
-    <t>15162314867</t>
-  </si>
-  <si>
-    <t>13812871158</t>
-  </si>
-  <si>
-    <t>13382101533</t>
-  </si>
-  <si>
-    <t>15995535888</t>
-  </si>
-  <si>
-    <t>13913515077</t>
-  </si>
-  <si>
-    <t>13913081888</t>
-  </si>
-  <si>
-    <t>13914000114</t>
-  </si>
-  <si>
-    <t>13862107365</t>
-  </si>
-  <si>
-    <t>15306257556</t>
-  </si>
-  <si>
-    <t>13701569998</t>
-  </si>
-  <si>
-    <t>13358008425</t>
-  </si>
-  <si>
-    <t>13771986917</t>
-  </si>
-  <si>
-    <t>13776261368</t>
-  </si>
-  <si>
-    <t>13914017279</t>
-  </si>
-  <si>
-    <t>13862240115</t>
-  </si>
-  <si>
-    <t>13606205381</t>
-  </si>
-  <si>
-    <t>13913206926</t>
-  </si>
-  <si>
-    <t>13004526066</t>
-  </si>
-  <si>
-    <t>15050378603</t>
-  </si>
-  <si>
-    <t>13862026067</t>
-  </si>
-  <si>
-    <t>13914916115</t>
-  </si>
-  <si>
-    <t>13052861039</t>
-  </si>
-  <si>
-    <t>13063868835</t>
-  </si>
-  <si>
-    <t>13913581082</t>
-  </si>
-  <si>
-    <t>13906249462</t>
-  </si>
-  <si>
-    <t>13862016525</t>
-  </si>
-  <si>
-    <t>13306208502</t>
-  </si>
-  <si>
-    <t>13912701698</t>
-  </si>
-  <si>
-    <t>13952441165</t>
-  </si>
-  <si>
-    <t>13962589732</t>
-  </si>
-  <si>
-    <t>13913169562</t>
-  </si>
-  <si>
-    <t>13915590331</t>
-  </si>
-  <si>
-    <t>13218165286</t>
-  </si>
-  <si>
-    <t>18662584598</t>
-  </si>
-  <si>
-    <t>13962545818</t>
-  </si>
-  <si>
-    <t>15862528266</t>
-  </si>
-  <si>
-    <t>13606222735</t>
-  </si>
-  <si>
-    <t>13862235057</t>
-  </si>
-  <si>
-    <t>13616216717</t>
-  </si>
-  <si>
-    <t>13913797776</t>
-  </si>
-  <si>
-    <t>13962116265</t>
-  </si>
-  <si>
-    <t>13901563990</t>
-  </si>
-  <si>
-    <t>13621568616</t>
-  </si>
-  <si>
-    <t>13706258198</t>
-  </si>
-  <si>
-    <t>13913156558</t>
-  </si>
-  <si>
-    <t>13771936199</t>
-  </si>
-  <si>
-    <t>13862066407</t>
-  </si>
-  <si>
-    <t>13506227885</t>
-  </si>
-  <si>
-    <t>13912626249</t>
-  </si>
-  <si>
-    <t>15162520182</t>
-  </si>
-  <si>
-    <t>13506229879</t>
-  </si>
-  <si>
-    <t>13913530215</t>
-  </si>
-  <si>
-    <t>13914050843</t>
-  </si>
-  <si>
-    <t>13862081509</t>
-  </si>
-  <si>
-    <t>13771623312</t>
-  </si>
-  <si>
-    <t>13862600445</t>
-  </si>
-  <si>
-    <t>13962588203</t>
-  </si>
-  <si>
-    <t>13913709055</t>
-  </si>
-  <si>
-    <t>13771622225</t>
-  </si>
-  <si>
-    <t>13901566066</t>
-  </si>
-  <si>
-    <t>13616208436</t>
-  </si>
-  <si>
-    <t>13801558998</t>
-  </si>
-  <si>
-    <t>13306212102</t>
-  </si>
-  <si>
-    <t>15862552073</t>
-  </si>
-  <si>
-    <t>13906240903</t>
-  </si>
-  <si>
-    <t>13862034351</t>
-  </si>
-  <si>
-    <t>13912774287</t>
-  </si>
-  <si>
-    <t>13616215092</t>
-  </si>
-  <si>
-    <t>18915528189</t>
-  </si>
-  <si>
-    <t>15062319968</t>
-  </si>
-  <si>
-    <t>13906254881</t>
-  </si>
-  <si>
-    <t>13815292928</t>
-  </si>
-  <si>
-    <t>13218129777</t>
-  </si>
-  <si>
-    <t>13915533995</t>
-  </si>
-  <si>
-    <t>18626266896</t>
-  </si>
-  <si>
-    <t>15962566685</t>
-  </si>
-  <si>
-    <t>15950013820</t>
-  </si>
-  <si>
-    <t>13915718786</t>
-  </si>
-  <si>
-    <t>13606209771</t>
-  </si>
-  <si>
-    <t>13913081847</t>
-  </si>
-  <si>
-    <t>13584472242</t>
-  </si>
-  <si>
-    <t>13814598196</t>
-  </si>
-  <si>
-    <t>13913066232</t>
-  </si>
-  <si>
-    <t>13706259398</t>
-  </si>
-  <si>
-    <t>15306256091</t>
-  </si>
-  <si>
-    <t>13511632818</t>
-  </si>
-  <si>
-    <t>13962538828</t>
-  </si>
-  <si>
-    <t>13862263555</t>
-  </si>
-  <si>
-    <t>18260209184</t>
-  </si>
-  <si>
-    <t>13814826037</t>
-  </si>
-  <si>
-    <t>13701414798</t>
-  </si>
-  <si>
-    <t>13962191627</t>
-  </si>
-  <si>
-    <t>13773287788</t>
-  </si>
-  <si>
-    <t>18913716282</t>
-  </si>
-  <si>
-    <t>15862560896</t>
-  </si>
-  <si>
-    <t>13222423719</t>
-  </si>
-  <si>
-    <t>13506219452</t>
-  </si>
-  <si>
-    <t>13584895357</t>
-  </si>
-  <si>
-    <t>13915513384</t>
-  </si>
-  <si>
-    <t>13771639239</t>
-  </si>
-  <si>
-    <t>15995749777</t>
-  </si>
-  <si>
-    <t>13913758675</t>
-  </si>
-  <si>
-    <t>13962445022</t>
-  </si>
-  <si>
-    <t>13606254432</t>
-  </si>
-  <si>
-    <t>15851422559</t>
-  </si>
-  <si>
-    <t>13913601112</t>
-  </si>
-  <si>
-    <t>13951116857</t>
-  </si>
-  <si>
-    <t>13915550888</t>
-  </si>
-  <si>
-    <t>13656238945</t>
-  </si>
-  <si>
-    <t>13862087433</t>
-  </si>
-  <si>
-    <t>13962539182</t>
-  </si>
-  <si>
-    <t>13862361507</t>
-  </si>
-  <si>
-    <t>18013562169</t>
-  </si>
-  <si>
-    <t>13962594554</t>
-  </si>
-  <si>
-    <t>13806135197</t>
-  </si>
-  <si>
-    <t>13915404790</t>
-  </si>
-  <si>
-    <t>18625037985</t>
-  </si>
-  <si>
-    <t>13862298397</t>
-  </si>
-  <si>
-    <t>13861309450</t>
-  </si>
-  <si>
-    <t>13656259062</t>
-  </si>
-  <si>
-    <t>13906258507</t>
-  </si>
-  <si>
-    <t>13506257253</t>
-  </si>
-  <si>
-    <t>13915575645</t>
-  </si>
-  <si>
-    <t>13584408299</t>
-  </si>
-  <si>
-    <t>13913158350</t>
-  </si>
-  <si>
-    <t>13773272328</t>
-  </si>
-  <si>
-    <t>13814801806</t>
-  </si>
-  <si>
-    <t>13814559404</t>
-  </si>
-  <si>
-    <t>13616200150</t>
-  </si>
-  <si>
-    <t>18914933389</t>
-  </si>
-  <si>
-    <t>13912620498</t>
-  </si>
-  <si>
-    <t>13701564233</t>
-  </si>
-  <si>
-    <t>13913508719</t>
-  </si>
-  <si>
-    <t>13801552660</t>
-  </si>
-  <si>
-    <t>13584440555</t>
-  </si>
-  <si>
-    <t>13771693010</t>
-  </si>
-  <si>
-    <t>13771772371</t>
-  </si>
-  <si>
-    <t>13382191693</t>
-  </si>
-  <si>
-    <t>13773173533</t>
-  </si>
-  <si>
-    <t>13962548049</t>
-  </si>
-  <si>
-    <t>13862598236</t>
-  </si>
-  <si>
-    <t>13812672520</t>
-  </si>
-  <si>
-    <t>13915505144</t>
-  </si>
-  <si>
-    <t>13814808906</t>
-  </si>
-  <si>
-    <t>13616248675</t>
-  </si>
-  <si>
-    <t>13912797798</t>
-  </si>
-  <si>
-    <t>13776153387</t>
-  </si>
-  <si>
-    <t>15250213016</t>
-  </si>
-  <si>
-    <t>13701566185</t>
-  </si>
-  <si>
-    <t>13606229059</t>
-  </si>
-  <si>
-    <t>13912632875</t>
-  </si>
-  <si>
-    <t>13451976311</t>
-  </si>
-  <si>
-    <t>13771636079</t>
-  </si>
-  <si>
-    <t>13861314385</t>
-  </si>
-  <si>
-    <t>13771665002</t>
-  </si>
-  <si>
-    <t>18962666897</t>
-  </si>
-  <si>
-    <t>13814857270</t>
-  </si>
-  <si>
-    <t>13773110160</t>
-  </si>
-  <si>
-    <t>13812728925</t>
-  </si>
-  <si>
-    <t>13812703254</t>
-  </si>
-  <si>
-    <t>13901542806</t>
-  </si>
-  <si>
-    <t>13776144416</t>
-  </si>
-  <si>
-    <t>13962510157</t>
-  </si>
-  <si>
-    <t>13862228707</t>
-  </si>
-  <si>
-    <t>15862538754</t>
-  </si>
-  <si>
-    <t>13656221279</t>
-  </si>
-  <si>
-    <t>13913715773</t>
-  </si>
-  <si>
-    <t>18762908298</t>
-  </si>
-  <si>
-    <t>13812733316</t>
-  </si>
-  <si>
-    <t>13773159765</t>
-  </si>
-  <si>
-    <t>18251151575</t>
-  </si>
-  <si>
-    <t>13151196829</t>
-  </si>
-  <si>
-    <t>13862059577</t>
-  </si>
-  <si>
-    <t>13338002334</t>
-  </si>
-  <si>
-    <t>13656238897</t>
-  </si>
-  <si>
-    <t>13625284383</t>
-  </si>
-  <si>
-    <t>13222966259</t>
-  </si>
-  <si>
-    <t>13906254481</t>
-  </si>
-  <si>
-    <t>13814827949</t>
-  </si>
-  <si>
-    <t>13912620646</t>
-  </si>
-  <si>
-    <t>15906202063</t>
-  </si>
-  <si>
-    <t>13806255791</t>
-  </si>
-  <si>
-    <t>13914098673</t>
-  </si>
-  <si>
-    <t>13451610244</t>
-  </si>
-  <si>
-    <t>13962179463</t>
-  </si>
-  <si>
-    <t>13506222026</t>
-  </si>
-  <si>
-    <t>13606205678</t>
-  </si>
-  <si>
-    <t>13962471618</t>
-  </si>
-  <si>
-    <t>18550261947</t>
-  </si>
-  <si>
-    <t>15051428200</t>
-  </si>
-  <si>
-    <t>13962134616</t>
-  </si>
-  <si>
-    <t>15262461009</t>
-  </si>
-  <si>
-    <t>13962265376</t>
-  </si>
-  <si>
-    <t>13606250788</t>
-  </si>
-  <si>
-    <t>13913179417</t>
-  </si>
-  <si>
-    <t>13862155980</t>
-  </si>
-  <si>
-    <t>13862406801</t>
-  </si>
-  <si>
-    <t>13962195739</t>
-  </si>
-  <si>
-    <t>18260250841</t>
-  </si>
-  <si>
-    <t>13606252210</t>
-  </si>
-  <si>
-    <t>13912642123</t>
-  </si>
-  <si>
-    <t>15850161794</t>
-  </si>
-  <si>
-    <t>13606222880</t>
-  </si>
-  <si>
-    <t>13706221599</t>
-  </si>
-  <si>
-    <t>15150123098</t>
-  </si>
-  <si>
-    <t>13776165708</t>
-  </si>
-  <si>
-    <t>13914008647</t>
-  </si>
-  <si>
-    <t>13921983238</t>
-  </si>
-  <si>
-    <t>15952404819</t>
-  </si>
-  <si>
-    <t>13921982268</t>
-  </si>
-  <si>
-    <t>13862147748</t>
-  </si>
-  <si>
-    <t>13584819508</t>
-  </si>
-  <si>
-    <t>13771880705</t>
-  </si>
-  <si>
-    <t>13218162230</t>
-  </si>
-  <si>
-    <t>13962202186</t>
-  </si>
-  <si>
-    <t>13912647180</t>
-  </si>
-  <si>
-    <t>15106139619</t>
-  </si>
-  <si>
-    <t>13915684241</t>
-  </si>
-  <si>
-    <t>13906259285</t>
-  </si>
-  <si>
-    <t>13901555026</t>
-  </si>
-  <si>
-    <t>13063800359</t>
-  </si>
-  <si>
-    <t>13913541645</t>
-  </si>
-  <si>
-    <t>18913587202</t>
-  </si>
-  <si>
-    <t>18915779576</t>
-  </si>
-  <si>
-    <t>13962521152</t>
-  </si>
-  <si>
-    <t>13601563259</t>
-  </si>
-  <si>
-    <t>15371466979</t>
-  </si>
-  <si>
-    <t>13915530767</t>
-  </si>
-  <si>
-    <t>13862636941</t>
-  </si>
-  <si>
-    <t>13801552291</t>
-  </si>
-  <si>
-    <t>13915678989</t>
-  </si>
-  <si>
-    <t>13004518984</t>
-  </si>
-  <si>
-    <t>13584410778</t>
-  </si>
-  <si>
-    <t>13962533970</t>
-  </si>
-  <si>
-    <t>15962178249</t>
-  </si>
-  <si>
-    <t>13506229834</t>
-  </si>
-  <si>
-    <t>13776013180</t>
-  </si>
-  <si>
-    <t>13405080805</t>
-  </si>
-  <si>
-    <t>13901546955</t>
-  </si>
-  <si>
-    <t>15190000025</t>
-  </si>
-  <si>
-    <t>13913085950</t>
-  </si>
-  <si>
-    <t>13776129377</t>
-  </si>
-  <si>
-    <t>13801557761</t>
-  </si>
-  <si>
-    <t>13862129678</t>
-  </si>
-  <si>
-    <t>13606252679</t>
-  </si>
-  <si>
-    <t>13806252456</t>
-  </si>
-  <si>
-    <t>13606229802</t>
-  </si>
-  <si>
-    <t>13862018980</t>
-  </si>
-  <si>
-    <t>13906258002</t>
-  </si>
-  <si>
-    <t>15851665353</t>
-  </si>
-  <si>
-    <t>13962128606</t>
-  </si>
-  <si>
-    <t>13913695166</t>
-  </si>
-  <si>
-    <t>15952459060</t>
-  </si>
-  <si>
-    <t>13771709950</t>
-  </si>
-  <si>
-    <t>15895631902</t>
-  </si>
-  <si>
-    <t>13912605564</t>
-  </si>
-  <si>
-    <t>15051552122</t>
-  </si>
-  <si>
-    <t>13706130609</t>
-  </si>
-  <si>
-    <t>13862105180</t>
-  </si>
-  <si>
-    <t>13912626098</t>
-  </si>
-  <si>
-    <t>13506203465</t>
-  </si>
-  <si>
-    <t>13862403624</t>
-  </si>
-  <si>
-    <t>13706227712</t>
-  </si>
-  <si>
-    <t>18913069018</t>
-  </si>
-  <si>
-    <t>13771881607</t>
-  </si>
-  <si>
-    <t>18662337806</t>
-  </si>
-  <si>
-    <t>13013762032</t>
-  </si>
-  <si>
-    <t>13063781463</t>
-  </si>
-  <si>
-    <t>13921996000</t>
-  </si>
-  <si>
-    <t>13701543867</t>
-  </si>
-  <si>
-    <t>13812712915</t>
-  </si>
-  <si>
-    <t>13706253381</t>
-  </si>
-  <si>
-    <t>13952400221</t>
-  </si>
-  <si>
-    <t>13962176845</t>
-  </si>
-  <si>
-    <t>15950178237</t>
-  </si>
-  <si>
-    <t>13358000539</t>
-  </si>
-  <si>
-    <t>13913053732</t>
-  </si>
-  <si>
-    <t>13052869200</t>
-  </si>
-  <si>
-    <t>15062601897</t>
-  </si>
-  <si>
-    <t>18262039322</t>
-  </si>
-  <si>
-    <t>13915688173</t>
-  </si>
-  <si>
-    <t>13584279008</t>
-  </si>
-  <si>
-    <t>18913712975</t>
-  </si>
-  <si>
-    <t>13913117796</t>
-  </si>
-  <si>
-    <t>13862529685</t>
-  </si>
-  <si>
-    <t>13606257672</t>
-  </si>
-  <si>
-    <t>13584281106</t>
-  </si>
-  <si>
-    <t>18912791179</t>
-  </si>
-  <si>
-    <t>13771713301</t>
-  </si>
-  <si>
-    <t>13814868896</t>
-  </si>
-  <si>
-    <t>13962539451</t>
-  </si>
-  <si>
-    <t>13962289830</t>
-  </si>
-  <si>
-    <t>13451789108</t>
-  </si>
-  <si>
-    <t>13814883186</t>
-  </si>
-  <si>
-    <t>13962472299</t>
-  </si>
-  <si>
-    <t>18962578026</t>
-  </si>
-  <si>
-    <t>13402608381</t>
-  </si>
-  <si>
-    <t>13773228251</t>
-  </si>
-  <si>
-    <t>13814959600</t>
-  </si>
-  <si>
-    <t>13951136673</t>
-  </si>
-  <si>
-    <t>13912623286</t>
-  </si>
-  <si>
-    <t>13962132132</t>
-  </si>
-  <si>
-    <t>18662607016</t>
-  </si>
-  <si>
-    <t>13915769616</t>
-  </si>
-  <si>
-    <t>13306259816</t>
-  </si>
-  <si>
-    <t>13861332175</t>
-  </si>
-  <si>
-    <t>13913057999</t>
-  </si>
-  <si>
-    <t>13915773691</t>
-  </si>
-  <si>
-    <t>13912715128</t>
-  </si>
-  <si>
-    <t>13862093511</t>
-  </si>
-  <si>
-    <t>13812877899</t>
-  </si>
-  <si>
-    <t>13706251647</t>
-  </si>
-  <si>
-    <t>13962589811</t>
-  </si>
-  <si>
-    <t>13962544929</t>
-  </si>
-  <si>
-    <t>13912730980</t>
-  </si>
-  <si>
-    <t>15962557586</t>
-  </si>
-  <si>
-    <t>18862236017</t>
-  </si>
-  <si>
-    <t>13913113874</t>
-  </si>
-  <si>
-    <t>13222960206</t>
-  </si>
-  <si>
-    <t>13004599907</t>
-  </si>
-  <si>
-    <t>13915510449</t>
-  </si>
-  <si>
-    <t>15262538445</t>
-  </si>
-  <si>
-    <t>13506253598</t>
-  </si>
-  <si>
-    <t>13776309750</t>
-  </si>
-  <si>
-    <t>13962164910</t>
-  </si>
-  <si>
-    <t>15851489539</t>
-  </si>
-  <si>
-    <t>13601566138</t>
-  </si>
-  <si>
-    <t>13306203770</t>
-  </si>
-  <si>
-    <t>13962128456</t>
-  </si>
-  <si>
-    <t>13962123182</t>
-  </si>
-  <si>
-    <t>18261622417</t>
-  </si>
-  <si>
-    <t>13862179495</t>
-  </si>
-  <si>
-    <t>13773102280</t>
-  </si>
-  <si>
-    <t>13962461286</t>
-  </si>
-  <si>
-    <t>13862521682</t>
-  </si>
-  <si>
-    <t>13862581204</t>
-  </si>
-  <si>
-    <t>13913069108</t>
-  </si>
-  <si>
-    <t>15162658936</t>
-  </si>
-  <si>
-    <t>13771904281</t>
-  </si>
-  <si>
-    <t>13862074075</t>
-  </si>
-  <si>
-    <t>13906241291</t>
-  </si>
-  <si>
-    <t>13962221078</t>
-  </si>
-  <si>
-    <t>13862124025</t>
-  </si>
-  <si>
-    <t>15162526353</t>
-  </si>
-  <si>
-    <t>13701410643</t>
-  </si>
-  <si>
-    <t>13063860807</t>
-  </si>
-  <si>
-    <t>13815299979</t>
-  </si>
-  <si>
-    <t>13606259185</t>
-  </si>
-  <si>
-    <t>13812870190</t>
-  </si>
-  <si>
-    <t>13801550965</t>
-  </si>
-  <si>
-    <t>13814595868</t>
-  </si>
-  <si>
-    <t>13912700075</t>
-  </si>
-  <si>
-    <t>13606205066</t>
-  </si>
-  <si>
-    <t>15995729972</t>
-  </si>
-  <si>
-    <t>13862028325</t>
-  </si>
-  <si>
-    <t>13771934101</t>
-  </si>
-  <si>
-    <t>13862036669</t>
-  </si>
-  <si>
-    <t>13812756112</t>
-  </si>
-  <si>
-    <t>13912707517</t>
-  </si>
-  <si>
-    <t>13862402930</t>
-  </si>
-  <si>
-    <t>13951132218</t>
-  </si>
-  <si>
-    <t>13606255112</t>
-  </si>
-  <si>
-    <t>13862178204</t>
-  </si>
-  <si>
-    <t>13773299252</t>
-  </si>
-  <si>
-    <t>13801552741</t>
-  </si>
-  <si>
-    <t>13862570499</t>
-  </si>
-  <si>
-    <t>15195662033</t>
-  </si>
-  <si>
-    <t>13506139846</t>
-  </si>
-  <si>
-    <t>15995818424</t>
-  </si>
-  <si>
-    <t>13701559648</t>
-  </si>
-  <si>
-    <t>13862060205</t>
-  </si>
-  <si>
-    <t>18915589321</t>
-  </si>
-  <si>
-    <t>18913591782</t>
-  </si>
-  <si>
-    <t>15150371391</t>
-  </si>
-  <si>
-    <t>13584276228</t>
-  </si>
-  <si>
-    <t>13915524284</t>
-  </si>
-  <si>
-    <t>13584875815</t>
-  </si>
-  <si>
-    <t>18261637075</t>
-  </si>
-  <si>
-    <t>13301560362</t>
-  </si>
-  <si>
-    <t>13913577339</t>
-  </si>
-  <si>
-    <t>13913634215</t>
-  </si>
-  <si>
-    <t>13812745044</t>
-  </si>
-  <si>
-    <t>13182666728</t>
-  </si>
-  <si>
-    <t>13862509348</t>
-  </si>
-  <si>
-    <t>13906254342</t>
-  </si>
-  <si>
-    <t>18914085842</t>
-  </si>
-  <si>
-    <t>13962329362</t>
-  </si>
-  <si>
-    <t>13862013546</t>
-  </si>
-  <si>
-    <t>13906250543</t>
-  </si>
-  <si>
-    <t>13913058511</t>
-  </si>
-  <si>
-    <t>13913080360</t>
-  </si>
-  <si>
-    <t>13801551535</t>
-  </si>
-  <si>
-    <t>13913531215</t>
-  </si>
-  <si>
-    <t>13771985971</t>
-  </si>
-  <si>
-    <t>13906249107</t>
-  </si>
-  <si>
-    <t>13771810838</t>
-  </si>
-  <si>
-    <t>18962291550</t>
-  </si>
-  <si>
-    <t>13732639961</t>
-  </si>
-  <si>
-    <t>13584997309</t>
-  </si>
-  <si>
-    <t>13806256088</t>
-  </si>
-  <si>
-    <t>13862015688</t>
-  </si>
-  <si>
-    <t>18915409951</t>
-  </si>
-  <si>
-    <t>13771951954</t>
-  </si>
-  <si>
-    <t>13222426689</t>
-  </si>
-  <si>
-    <t>13962505878</t>
-  </si>
-  <si>
-    <t>13862107150</t>
-  </si>
-  <si>
-    <t>15950038046</t>
-  </si>
-  <si>
-    <t>13913089999</t>
-  </si>
-  <si>
-    <t>13962550400</t>
-  </si>
-  <si>
-    <t>13814816796</t>
-  </si>
-  <si>
-    <t>13646256411</t>
-  </si>
-  <si>
-    <t>13913299162</t>
-  </si>
-  <si>
-    <t>13451727004</t>
-  </si>
-  <si>
-    <t>13606203081</t>
-  </si>
-  <si>
-    <t>13073338807</t>
-  </si>
-  <si>
-    <t>13962119878</t>
-  </si>
-  <si>
-    <t>13776155609</t>
-  </si>
-  <si>
-    <t>13901555731</t>
-  </si>
-  <si>
-    <t>13862513622</t>
-  </si>
-  <si>
-    <t>13004547503</t>
-  </si>
-  <si>
-    <t>13921984558</t>
-  </si>
-  <si>
-    <t>13812960677</t>
-  </si>
-  <si>
-    <t>13812602582</t>
-  </si>
-  <si>
-    <t>13506213251</t>
-  </si>
-  <si>
-    <t>15906247587</t>
-  </si>
-  <si>
-    <t>13616249868</t>
-  </si>
-  <si>
-    <t>13306132217</t>
-  </si>
-  <si>
-    <t>15862567709</t>
-  </si>
-  <si>
-    <t>13073348191</t>
-  </si>
-  <si>
-    <t>18626295876</t>
-  </si>
-  <si>
-    <t>18262036089</t>
-  </si>
-  <si>
-    <t>13073382045</t>
-  </si>
-  <si>
-    <t>13773288998</t>
-  </si>
-  <si>
-    <t>13962585555</t>
-  </si>
-  <si>
-    <t>13915591400</t>
-  </si>
-  <si>
-    <t>15806210656</t>
-  </si>
-  <si>
-    <t>13306253812</t>
-  </si>
-  <si>
-    <t>18261666518</t>
-  </si>
-  <si>
-    <t>15151717896</t>
-  </si>
-  <si>
-    <t>13901561712</t>
-  </si>
-  <si>
-    <t>13812602958</t>
-  </si>
-  <si>
-    <t>13913050719</t>
-  </si>
-  <si>
-    <t>15862692022</t>
-  </si>
-  <si>
-    <t>13706222026</t>
-  </si>
-  <si>
-    <t>13771691235</t>
-  </si>
-  <si>
-    <t>15150276495</t>
-  </si>
-  <si>
-    <t>13511615855</t>
-  </si>
-  <si>
-    <t>13801552008</t>
-  </si>
-  <si>
-    <t>13771681161</t>
-  </si>
-  <si>
-    <t>13338658889</t>
-  </si>
-  <si>
-    <t>13915679377</t>
-  </si>
-  <si>
-    <t>13913701858</t>
-  </si>
-  <si>
-    <t>13962507977</t>
-  </si>
-  <si>
-    <t>13913055191</t>
-  </si>
-  <si>
-    <t>18662507177</t>
-  </si>
-  <si>
-    <t>13151669951</t>
-  </si>
-  <si>
-    <t>13092610191</t>
-  </si>
-  <si>
-    <t>15995823990</t>
-  </si>
-  <si>
-    <t>13913509770</t>
-  </si>
-  <si>
-    <t>13706213311</t>
-  </si>
-  <si>
-    <t>13913708082</t>
-  </si>
-  <si>
-    <t>15995571676</t>
-  </si>
-  <si>
-    <t>15962148178</t>
-  </si>
-  <si>
-    <t>13801547160</t>
-  </si>
-  <si>
-    <t>15851428043</t>
-  </si>
-  <si>
-    <t>13063815725</t>
-  </si>
-  <si>
-    <t>13151195916</t>
-  </si>
-  <si>
-    <t>13906222266</t>
-  </si>
-  <si>
-    <t>15050301386</t>
-  </si>
-  <si>
-    <t>13771726964</t>
-  </si>
-  <si>
-    <t>13732643868</t>
-  </si>
-  <si>
-    <t>13814554489</t>
-  </si>
-  <si>
-    <t>13063760287</t>
-  </si>
-  <si>
-    <t>13057461956</t>
-  </si>
-  <si>
-    <t>15962231835</t>
-  </si>
-  <si>
-    <t>13901561128</t>
-  </si>
-  <si>
-    <t>13962500238</t>
-  </si>
-  <si>
-    <t>15862305798</t>
-  </si>
-  <si>
-    <t>13328002880</t>
-  </si>
-  <si>
-    <t>13962550688</t>
-  </si>
-  <si>
-    <t>15150283355</t>
-  </si>
-  <si>
-    <t>13906246227</t>
-  </si>
-  <si>
-    <t>13506136733</t>
-  </si>
-  <si>
-    <t>15995699357</t>
-  </si>
-  <si>
-    <t>13646228946</t>
-  </si>
-  <si>
-    <t>13812787488</t>
-  </si>
-  <si>
-    <t>13915535576</t>
-  </si>
-  <si>
-    <t>13584411305</t>
-  </si>
-  <si>
-    <t>13776088887</t>
-  </si>
-  <si>
-    <t>15151454591</t>
-  </si>
-  <si>
-    <t>13706251747</t>
-  </si>
-  <si>
-    <t>13906243922</t>
-  </si>
-  <si>
-    <t>13962161140</t>
-  </si>
-  <si>
-    <t>13506251509</t>
-  </si>
-  <si>
-    <t>15506167596</t>
-  </si>
-  <si>
-    <t>13862077104</t>
-  </si>
-  <si>
-    <t>13771873318</t>
-  </si>
-  <si>
-    <t>13814566163</t>
-  </si>
-  <si>
-    <t>13776053763</t>
-  </si>
-  <si>
-    <t>13506207206</t>
-  </si>
-  <si>
-    <t>13912781959</t>
-  </si>
-  <si>
-    <t>13906252111</t>
-  </si>
-  <si>
-    <t>13606250492</t>
-  </si>
-  <si>
-    <t>13584897651</t>
-  </si>
-  <si>
-    <t>13706217134</t>
-  </si>
-  <si>
-    <t>13771750494</t>
-  </si>
-  <si>
-    <t>13912780062</t>
-  </si>
-  <si>
-    <t>15862691530</t>
-  </si>
-  <si>
-    <t>13862564303</t>
-  </si>
-  <si>
-    <t>13915480044</t>
-  </si>
-  <si>
-    <t>13912763617</t>
-  </si>
-  <si>
-    <t>13701557349</t>
-  </si>
-  <si>
-    <t>13812708082</t>
-  </si>
-  <si>
-    <t>13906216998</t>
-  </si>
-  <si>
-    <t>15501505317</t>
-  </si>
-  <si>
-    <t>13906259839</t>
-  </si>
-  <si>
-    <t>13404221613</t>
-  </si>
-  <si>
-    <t>13913103637</t>
-  </si>
-  <si>
-    <t>13584864239</t>
-  </si>
-  <si>
-    <t>15995938655</t>
-  </si>
-  <si>
-    <t>13506240348</t>
-  </si>
-  <si>
-    <t>13616212808</t>
-  </si>
-  <si>
-    <t>13776093997</t>
-  </si>
-  <si>
-    <t>13962679999</t>
-  </si>
-  <si>
-    <t>13771880641</t>
-  </si>
-  <si>
-    <t>13706215525</t>
-  </si>
-  <si>
-    <t>13013776927</t>
-  </si>
-  <si>
-    <t>13962591771</t>
-  </si>
-  <si>
-    <t>13451984909</t>
-  </si>
-  <si>
-    <t>13862023670</t>
-  </si>
-  <si>
-    <t>13901552987</t>
-  </si>
-  <si>
-    <t>13962247666</t>
-  </si>
-  <si>
-    <t>13616242799</t>
-  </si>
-  <si>
-    <t>13506254607</t>
-  </si>
-  <si>
-    <t>13013862061</t>
-  </si>
-  <si>
-    <t>13646257893</t>
-  </si>
-  <si>
-    <t>13382165299</t>
-  </si>
-  <si>
-    <t>18913538023</t>
-  </si>
-  <si>
-    <t>13706228713</t>
-  </si>
-  <si>
-    <t>13962533033</t>
-  </si>
-  <si>
-    <t>13812867458</t>
-  </si>
-  <si>
-    <t>13901558538</t>
-  </si>
-  <si>
-    <t>13862519889</t>
-  </si>
-  <si>
-    <t>13906257813</t>
-  </si>
-  <si>
-    <t>13771991183</t>
-  </si>
-  <si>
-    <t>13806224787</t>
-  </si>
-  <si>
-    <t>13951118874</t>
-  </si>
-  <si>
-    <t>13913088263</t>
-  </si>
-  <si>
-    <t>13701562359</t>
-  </si>
-  <si>
-    <t>13052801056</t>
-  </si>
-  <si>
-    <t>13862117211</t>
-  </si>
-  <si>
-    <t>13906264992</t>
-  </si>
-  <si>
-    <t>15306256721</t>
-  </si>
-  <si>
-    <t>13773240700</t>
-  </si>
-  <si>
-    <t>18994468808</t>
-  </si>
-  <si>
-    <t>13862045061</t>
-  </si>
-  <si>
-    <t>13915463153</t>
-  </si>
-  <si>
-    <t>13806229719</t>
-  </si>
-  <si>
-    <t>13812665802</t>
-  </si>
-  <si>
-    <t>13901544254</t>
-  </si>
-  <si>
-    <t>13013811699</t>
-  </si>
-  <si>
-    <t>13801551062</t>
-  </si>
-  <si>
-    <t>13013832825</t>
-  </si>
-  <si>
-    <t>18601428649</t>
-  </si>
-  <si>
-    <t>15601555768</t>
-  </si>
-  <si>
-    <t>13584253358</t>
-  </si>
-  <si>
-    <t>13401454606</t>
-  </si>
-  <si>
-    <t>13328015868</t>
-  </si>
-  <si>
-    <t>13584899517</t>
-  </si>
-  <si>
-    <t>13013860308</t>
-  </si>
-  <si>
-    <t>15862507766</t>
-  </si>
-  <si>
-    <t>18901572820</t>
-  </si>
-  <si>
-    <t>15851430333</t>
-  </si>
-  <si>
-    <t>15301550593</t>
-  </si>
-  <si>
-    <t>13812771034</t>
-  </si>
-  <si>
-    <t>15051563803</t>
-  </si>
-  <si>
-    <t>13951123777</t>
-  </si>
-  <si>
-    <t>15298894477</t>
-  </si>
-  <si>
-    <t>13382198726</t>
-  </si>
-  <si>
-    <t>13862042776</t>
-  </si>
-  <si>
-    <t>13915402906</t>
-  </si>
-  <si>
-    <t>13906219168</t>
-  </si>
-  <si>
-    <t>13616248599</t>
-  </si>
-  <si>
-    <t>13706257784</t>
-  </si>
-  <si>
-    <t>13506257931</t>
-  </si>
-  <si>
-    <t>13052889595</t>
-  </si>
-  <si>
-    <t>13806256872</t>
-  </si>
-  <si>
-    <t>13073361171</t>
-  </si>
-  <si>
-    <t>13218181778</t>
-  </si>
-  <si>
-    <t>15962615595</t>
-  </si>
-  <si>
-    <t>13912760598</t>
-  </si>
-  <si>
-    <t>18912600902</t>
-  </si>
-  <si>
-    <t>13773270889</t>
-  </si>
-  <si>
-    <t>13914050357</t>
-  </si>
-  <si>
-    <t>13270960917</t>
-  </si>
-  <si>
-    <t>13057468552</t>
-  </si>
-  <si>
-    <t>18626109860</t>
-  </si>
-  <si>
-    <t>13773281973</t>
-  </si>
-  <si>
-    <t>15358815780</t>
-  </si>
-  <si>
-    <t>13951116019</t>
-  </si>
-  <si>
-    <t>13358051780</t>
-  </si>
-  <si>
-    <t>18662212012</t>
-  </si>
-  <si>
-    <t>13915581448</t>
-  </si>
-  <si>
-    <t>18862101971</t>
-  </si>
-  <si>
-    <t>13913126099</t>
-  </si>
-  <si>
-    <t>13812866851</t>
-  </si>
-  <si>
-    <t>13862529343</t>
-  </si>
-  <si>
-    <t>18912734590</t>
-  </si>
-  <si>
-    <t>13862196068</t>
-  </si>
-  <si>
-    <t>13646229081</t>
-  </si>
-  <si>
-    <t>13771824188</t>
-  </si>
-  <si>
-    <t>13862225290</t>
-  </si>
-  <si>
-    <t>13812717068</t>
-  </si>
-  <si>
-    <t>13962450371</t>
-  </si>
-  <si>
-    <t>13814887205</t>
-  </si>
-  <si>
-    <t>15150110757</t>
-  </si>
-  <si>
-    <t>15962565927</t>
-  </si>
-  <si>
-    <t>13584416516</t>
-  </si>
-  <si>
-    <t>13862561608</t>
-  </si>
-  <si>
-    <t>13606258898</t>
-  </si>
-  <si>
-    <t>13382187770</t>
-  </si>
-  <si>
-    <t>13706251871</t>
-  </si>
-  <si>
-    <t>13962193278</t>
-  </si>
-  <si>
-    <t>13063839072</t>
-  </si>
-  <si>
-    <t>13701543872</t>
-  </si>
-  <si>
-    <t>13812619676</t>
-  </si>
-  <si>
-    <t>13962555133</t>
-  </si>
-  <si>
-    <t>13606219012</t>
-  </si>
-  <si>
-    <t>13616252002</t>
-  </si>
-  <si>
-    <t>13913541348</t>
-  </si>
-  <si>
-    <t>15006237843</t>
-  </si>
-  <si>
-    <t>13812655154</t>
-  </si>
-  <si>
-    <t>18261890796</t>
-  </si>
-  <si>
-    <t>13862024752</t>
-  </si>
-  <si>
-    <t>15962336285</t>
-  </si>
-  <si>
-    <t>13814839075</t>
-  </si>
-  <si>
-    <t>13962507982</t>
-  </si>
-  <si>
-    <t>13771774801</t>
-  </si>
-  <si>
-    <t>18115566649</t>
-  </si>
-  <si>
-    <t>13601567549</t>
-  </si>
-  <si>
-    <t>13914917499</t>
-  </si>
-  <si>
-    <t>13962250508</t>
-  </si>
-  <si>
-    <t>13861302990</t>
-  </si>
-  <si>
-    <t>13451620072</t>
-  </si>
-  <si>
-    <t>13906255698</t>
-  </si>
-  <si>
-    <t>18862250697</t>
-  </si>
-  <si>
-    <t>13771625525</t>
-  </si>
-  <si>
-    <t>13306252227</t>
-  </si>
-  <si>
-    <t>13063781967</t>
-  </si>
-  <si>
-    <t>13606234707</t>
-  </si>
-  <si>
-    <t>13801550219</t>
-  </si>
-  <si>
-    <t>13915547679</t>
-  </si>
-  <si>
-    <t>13913222323</t>
-  </si>
-  <si>
-    <t>13806256008</t>
-  </si>
-  <si>
-    <t>13915426977</t>
-  </si>
-  <si>
-    <t>13912751295</t>
-  </si>
-  <si>
-    <t>13773027779</t>
-  </si>
-  <si>
-    <t>15862306682</t>
-  </si>
-  <si>
-    <t>13862028322</t>
-  </si>
-  <si>
-    <t>13382163887</t>
-  </si>
-  <si>
-    <t>15995756344</t>
-  </si>
-  <si>
-    <t>15051688052</t>
-  </si>
-  <si>
-    <t>13812718575</t>
-  </si>
-  <si>
-    <t>15895629759</t>
-  </si>
-  <si>
-    <t>13801551753</t>
-  </si>
-  <si>
-    <t>13776028201</t>
-  </si>
-  <si>
-    <t>13913722001</t>
-  </si>
-  <si>
-    <t>13906262109</t>
-  </si>
-  <si>
-    <t>13338049999</t>
-  </si>
-  <si>
-    <t>15151522966</t>
-  </si>
-  <si>
-    <t>13912716618</t>
-  </si>
-  <si>
-    <t>13806213506</t>
-  </si>
-  <si>
-    <t>13913704198</t>
-  </si>
-  <si>
-    <t>13222276520</t>
-  </si>
-  <si>
-    <t>13013897978</t>
-  </si>
-  <si>
-    <t>13182661652</t>
-  </si>
-  <si>
-    <t>13906253090</t>
-  </si>
-  <si>
-    <t>13862051186</t>
-  </si>
-  <si>
-    <t>13862550187</t>
-  </si>
-  <si>
-    <t>15995636703</t>
-  </si>
-  <si>
-    <t>15962341791</t>
-  </si>
-  <si>
-    <t>13584487059</t>
-  </si>
-  <si>
-    <t>18915470598</t>
-  </si>
-  <si>
-    <t>13073375512</t>
-  </si>
-  <si>
-    <t>13812759377</t>
-  </si>
-  <si>
-    <t>13913510202</t>
-  </si>
-  <si>
-    <t>13862345932</t>
-  </si>
-  <si>
-    <t>13906243413</t>
-  </si>
-  <si>
-    <t>18862192380</t>
-  </si>
-  <si>
-    <t>13814889062</t>
-  </si>
-  <si>
-    <t>13222421692</t>
-  </si>
-  <si>
-    <t>13862581919</t>
-  </si>
-  <si>
-    <t>13913691521</t>
-  </si>
-  <si>
-    <t>13861338685</t>
-  </si>
-  <si>
-    <t>13912720910</t>
-  </si>
-  <si>
-    <t>13915680211</t>
-  </si>
-  <si>
-    <t>13052801010</t>
-  </si>
-  <si>
-    <t>13862217597</t>
-  </si>
-  <si>
-    <t>13862082267</t>
-  </si>
-  <si>
-    <t>15851520915</t>
-  </si>
-  <si>
-    <t>13806258799</t>
-  </si>
-  <si>
-    <t>13506259667</t>
-  </si>
-  <si>
-    <t>13962462888</t>
-  </si>
-  <si>
-    <t>13862233543</t>
-  </si>
-  <si>
-    <t>15862443752</t>
-  </si>
-  <si>
-    <t>13912750841</t>
-  </si>
-  <si>
-    <t>13706220630</t>
-  </si>
-  <si>
-    <t>13862161704</t>
-  </si>
-  <si>
-    <t>13405008611</t>
-  </si>
-  <si>
-    <t>18962188589</t>
-  </si>
-  <si>
-    <t>13913067698</t>
-  </si>
-  <si>
-    <t>13092669696</t>
-  </si>
-  <si>
-    <t>13092639899</t>
-  </si>
-  <si>
-    <t>13182605032</t>
-  </si>
-  <si>
-    <t>13584966445</t>
-  </si>
-  <si>
-    <t>13862505122</t>
-  </si>
-  <si>
-    <t>18626178822</t>
-  </si>
-  <si>
-    <t>13901562898</t>
-  </si>
-  <si>
-    <t>13913156834</t>
-  </si>
-  <si>
-    <t>13656252636</t>
-  </si>
-  <si>
-    <t>15995770878</t>
-  </si>
-  <si>
-    <t>13951131266</t>
-  </si>
-  <si>
-    <t>13771942760</t>
-  </si>
-  <si>
-    <t>13915521120</t>
-  </si>
-  <si>
-    <t>13328045187</t>
-  </si>
-  <si>
-    <t>13285198130</t>
-  </si>
-  <si>
-    <t>15862515672</t>
+    <t>13606200898</t>
+  </si>
+  <si>
+    <t>13606201102</t>
+  </si>
+  <si>
+    <t>13606201168</t>
+  </si>
+  <si>
+    <t>13606201175</t>
+  </si>
+  <si>
+    <t>13606201300</t>
+  </si>
+  <si>
+    <t>13606201374</t>
+  </si>
+  <si>
+    <t>13606201613</t>
+  </si>
+  <si>
+    <t>13606201662</t>
+  </si>
+  <si>
+    <t>13606201700</t>
+  </si>
+  <si>
+    <t>13606201805</t>
+  </si>
+  <si>
+    <t>13606201847</t>
+  </si>
+  <si>
+    <t>13606201919</t>
+  </si>
+  <si>
+    <t>13606201995</t>
+  </si>
+  <si>
+    <t>13606202018</t>
+  </si>
+  <si>
+    <t>13606202185</t>
+  </si>
+  <si>
+    <t>13606202198</t>
+  </si>
+  <si>
+    <t>13606202293</t>
+  </si>
+  <si>
+    <t>13606202473</t>
+  </si>
+  <si>
+    <t>13606202481</t>
+  </si>
+  <si>
+    <t>13606202558</t>
+  </si>
+  <si>
+    <t>13606202835</t>
+  </si>
+  <si>
+    <t>13606202851</t>
+  </si>
+  <si>
+    <t>13606203080</t>
+  </si>
+  <si>
+    <t>13606203268</t>
+  </si>
+  <si>
+    <t>13606203320</t>
+  </si>
+  <si>
+    <t>13606203445</t>
+  </si>
+  <si>
+    <t>13606203785</t>
+  </si>
+  <si>
+    <t>13606203842</t>
+  </si>
+  <si>
+    <t>13606204128</t>
+  </si>
+  <si>
+    <t>13606204246</t>
+  </si>
+  <si>
+    <t>13606204353</t>
+  </si>
+  <si>
+    <t>13606204437</t>
+  </si>
+  <si>
+    <t>13606204699</t>
+  </si>
+  <si>
+    <t>13606204706</t>
+  </si>
+  <si>
+    <t>13606204719</t>
+  </si>
+  <si>
+    <t>13606204732</t>
+  </si>
+  <si>
+    <t>13606204765</t>
+  </si>
+  <si>
+    <t>13606204883</t>
+  </si>
+  <si>
+    <t>13606204968</t>
+  </si>
+  <si>
+    <t>13606205061</t>
+  </si>
+  <si>
+    <t>13606205192</t>
+  </si>
+  <si>
+    <t>13606205213</t>
+  </si>
+  <si>
+    <t>13606205218</t>
+  </si>
+  <si>
+    <t>13606205245</t>
+  </si>
+  <si>
+    <t>13606205318</t>
+  </si>
+  <si>
+    <t>13606205377</t>
+  </si>
+  <si>
+    <t>13606205538</t>
+  </si>
+  <si>
+    <t>13606205566</t>
+  </si>
+  <si>
+    <t>13606205757</t>
+  </si>
+  <si>
+    <t>13606205806</t>
+  </si>
+  <si>
+    <t>13606205950</t>
+  </si>
+  <si>
+    <t>13606205970</t>
+  </si>
+  <si>
+    <t>13606206161</t>
+  </si>
+  <si>
+    <t>13606206232</t>
+  </si>
+  <si>
+    <t>13606206460</t>
+  </si>
+  <si>
+    <t>13606206552</t>
+  </si>
+  <si>
+    <t>13606206575</t>
+  </si>
+  <si>
+    <t>13606206706</t>
+  </si>
+  <si>
+    <t>13606206720</t>
+  </si>
+  <si>
+    <t>13606206756</t>
+  </si>
+  <si>
+    <t>13606206936</t>
+  </si>
+  <si>
+    <t>13606207069</t>
+  </si>
+  <si>
+    <t>13606207138</t>
+  </si>
+  <si>
+    <t>13606207228</t>
+  </si>
+  <si>
+    <t>13606207587</t>
+  </si>
+  <si>
+    <t>13606207756</t>
+  </si>
+  <si>
+    <t>13606207760</t>
+  </si>
+  <si>
+    <t>13606207776</t>
+  </si>
+  <si>
+    <t>13606207797</t>
+  </si>
+  <si>
+    <t>13606207911</t>
+  </si>
+  <si>
+    <t>13606208441</t>
+  </si>
+  <si>
+    <t>13606208517</t>
+  </si>
+  <si>
+    <t>13606208555</t>
+  </si>
+  <si>
+    <t>13606208709</t>
+  </si>
+  <si>
+    <t>13606208777</t>
+  </si>
+  <si>
+    <t>13606208860</t>
+  </si>
+  <si>
+    <t>13606208922</t>
+  </si>
+  <si>
+    <t>13606208960</t>
+  </si>
+  <si>
+    <t>13606209089</t>
+  </si>
+  <si>
+    <t>13606209330</t>
+  </si>
+  <si>
+    <t>13606209347</t>
+  </si>
+  <si>
+    <t>13606209387</t>
+  </si>
+  <si>
+    <t>13606209547</t>
+  </si>
+  <si>
+    <t>13606209651</t>
+  </si>
+  <si>
+    <t>13606209691</t>
+  </si>
+  <si>
+    <t>13606209710</t>
+  </si>
+  <si>
+    <t>13606210203</t>
+  </si>
+  <si>
+    <t>13606210263</t>
+  </si>
+  <si>
+    <t>13606210307</t>
+  </si>
+  <si>
+    <t>13606210321</t>
+  </si>
+  <si>
+    <t>13606210356</t>
+  </si>
+  <si>
+    <t>13606210396</t>
+  </si>
+  <si>
+    <t>13606210583</t>
+  </si>
+  <si>
+    <t>13606210661</t>
+  </si>
+  <si>
+    <t>13606210733</t>
+  </si>
+  <si>
+    <t>13606210770</t>
+  </si>
+  <si>
+    <t>13606210840</t>
+  </si>
+  <si>
+    <t>13606211007</t>
+  </si>
+  <si>
+    <t>13606211155</t>
+  </si>
+  <si>
+    <t>13606211978</t>
+  </si>
+  <si>
+    <t>13606211991</t>
+  </si>
+  <si>
+    <t>13606212099</t>
+  </si>
+  <si>
+    <t>13606212211</t>
+  </si>
+  <si>
+    <t>13606212318</t>
+  </si>
+  <si>
+    <t>13606212351</t>
+  </si>
+  <si>
+    <t>13606212370</t>
+  </si>
+  <si>
+    <t>13606212457</t>
+  </si>
+  <si>
+    <t>13606212781</t>
+  </si>
+  <si>
+    <t>13606212804</t>
+  </si>
+  <si>
+    <t>13606212873</t>
+  </si>
+  <si>
+    <t>13606212883</t>
+  </si>
+  <si>
+    <t>13606212985</t>
+  </si>
+  <si>
+    <t>13606213698</t>
+  </si>
+  <si>
+    <t>13606213787</t>
+  </si>
+  <si>
+    <t>13606213835</t>
+  </si>
+  <si>
+    <t>13606214216</t>
+  </si>
+  <si>
+    <t>13606214446</t>
+  </si>
+  <si>
+    <t>13606214466</t>
+  </si>
+  <si>
+    <t>13606214611</t>
+  </si>
+  <si>
+    <t>13606214690</t>
+  </si>
+  <si>
+    <t>13606214706</t>
+  </si>
+  <si>
+    <t>13606214712</t>
+  </si>
+  <si>
+    <t>13606214721</t>
+  </si>
+  <si>
+    <t>13606214779</t>
+  </si>
+  <si>
+    <t>13606214788</t>
+  </si>
+  <si>
+    <t>13606214803</t>
+  </si>
+  <si>
+    <t>13606215123</t>
+  </si>
+  <si>
+    <t>13606215227</t>
+  </si>
+  <si>
+    <t>13606215287</t>
+  </si>
+  <si>
+    <t>13606215423</t>
+  </si>
+  <si>
+    <t>13606215488</t>
+  </si>
+  <si>
+    <t>13606215655</t>
+  </si>
+  <si>
+    <t>13606215790</t>
+  </si>
+  <si>
+    <t>13606215883</t>
+  </si>
+  <si>
+    <t>13606216052</t>
+  </si>
+  <si>
+    <t>13606216120</t>
+  </si>
+  <si>
+    <t>13606216337</t>
+  </si>
+  <si>
+    <t>13606216375</t>
+  </si>
+  <si>
+    <t>13606216379</t>
+  </si>
+  <si>
+    <t>13606216451</t>
+  </si>
+  <si>
+    <t>13606216467</t>
+  </si>
+  <si>
+    <t>13606216551</t>
+  </si>
+  <si>
+    <t>13606216816</t>
+  </si>
+  <si>
+    <t>13606216919</t>
+  </si>
+  <si>
+    <t>13606217025</t>
+  </si>
+  <si>
+    <t>13606217128</t>
+  </si>
+  <si>
+    <t>13606217230</t>
+  </si>
+  <si>
+    <t>13606217234</t>
+  </si>
+  <si>
+    <t>13606217578</t>
+  </si>
+  <si>
+    <t>13606217622</t>
+  </si>
+  <si>
+    <t>13606218057</t>
+  </si>
+  <si>
+    <t>13606218137</t>
+  </si>
+  <si>
+    <t>13606218152</t>
+  </si>
+  <si>
+    <t>13606218194</t>
+  </si>
+  <si>
+    <t>13606218668</t>
+  </si>
+  <si>
+    <t>13606218744</t>
+  </si>
+  <si>
+    <t>13606218851</t>
+  </si>
+  <si>
+    <t>13606218902</t>
+  </si>
+  <si>
+    <t>13606218991</t>
+  </si>
+  <si>
+    <t>13606219143</t>
+  </si>
+  <si>
+    <t>13606219180</t>
+  </si>
+  <si>
+    <t>13606219185</t>
+  </si>
+  <si>
+    <t>13606219323</t>
+  </si>
+  <si>
+    <t>13606219347</t>
+  </si>
+  <si>
+    <t>13606219539</t>
+  </si>
+  <si>
+    <t>13606219566</t>
+  </si>
+  <si>
+    <t>13606219634</t>
+  </si>
+  <si>
+    <t>13606219652</t>
+  </si>
+  <si>
+    <t>13606219683</t>
+  </si>
+  <si>
+    <t>13606219809</t>
+  </si>
+  <si>
+    <t>13606219852</t>
+  </si>
+  <si>
+    <t>13606219921</t>
+  </si>
+  <si>
+    <t>13606219930</t>
+  </si>
+  <si>
+    <t>13606219988</t>
+  </si>
+  <si>
+    <t>13606220102</t>
+  </si>
+  <si>
+    <t>13606220188</t>
+  </si>
+  <si>
+    <t>13606221706</t>
+  </si>
+  <si>
+    <t>13606222034</t>
+  </si>
+  <si>
+    <t>13606222763</t>
+  </si>
+  <si>
+    <t>13606230358</t>
+  </si>
+  <si>
+    <t>13606232116</t>
+  </si>
+  <si>
+    <t>13606232689</t>
+  </si>
+  <si>
+    <t>13606237902</t>
+  </si>
+  <si>
+    <t>13606241702</t>
+  </si>
+  <si>
+    <t>13606244539</t>
+  </si>
+  <si>
+    <t>13606266361</t>
+  </si>
+  <si>
+    <t>13606268761</t>
+  </si>
+  <si>
+    <t>13606562796</t>
+  </si>
+  <si>
+    <t>13606666000</t>
+  </si>
+  <si>
+    <t>13606711884</t>
+  </si>
+  <si>
+    <t>13606767928</t>
+  </si>
+  <si>
+    <t>13606862629</t>
+  </si>
+  <si>
+    <t>13606887322</t>
+  </si>
+  <si>
+    <t>13607098969</t>
+  </si>
+  <si>
+    <t>13611605369</t>
+  </si>
+  <si>
+    <t>13611637731</t>
+  </si>
+  <si>
+    <t>13611693761</t>
+  </si>
+  <si>
+    <t>13611848994</t>
+  </si>
+  <si>
+    <t>13611937158</t>
+  </si>
+  <si>
+    <t>13615101207</t>
+  </si>
+  <si>
+    <t>13615151566</t>
+  </si>
+  <si>
+    <t>13615580614</t>
+  </si>
+  <si>
+    <t>13616103812</t>
+  </si>
+  <si>
+    <t>13616200364</t>
+  </si>
+  <si>
+    <t>13616200455</t>
+  </si>
+  <si>
+    <t>13616200660</t>
+  </si>
+  <si>
+    <t>13616200991</t>
+  </si>
+  <si>
+    <t>13616201502</t>
+  </si>
+  <si>
+    <t>13616201665</t>
+  </si>
+  <si>
+    <t>13616201778</t>
+  </si>
+  <si>
+    <t>13616202277</t>
+  </si>
+  <si>
+    <t>13616202370</t>
+  </si>
+  <si>
+    <t>13616202390</t>
+  </si>
+  <si>
+    <t>13616202614</t>
+  </si>
+  <si>
+    <t>13616203118</t>
+  </si>
+  <si>
+    <t>13616203260</t>
+  </si>
+  <si>
+    <t>13616203579</t>
+  </si>
+  <si>
+    <t>13616203612</t>
+  </si>
+  <si>
+    <t>13616204400</t>
+  </si>
+  <si>
+    <t>13616204840</t>
+  </si>
+  <si>
+    <t>13616205028</t>
+  </si>
+  <si>
+    <t>13616205254</t>
+  </si>
+  <si>
+    <t>13616205529</t>
+  </si>
+  <si>
+    <t>13616205549</t>
+  </si>
+  <si>
+    <t>13616205651</t>
+  </si>
+  <si>
+    <t>13616206482</t>
+  </si>
+  <si>
+    <t>13616206568</t>
+  </si>
+  <si>
+    <t>13616206660</t>
+  </si>
+  <si>
+    <t>13616206879</t>
+  </si>
+  <si>
+    <t>13616207129</t>
+  </si>
+  <si>
+    <t>13616207140</t>
+  </si>
+  <si>
+    <t>13616207446</t>
+  </si>
+  <si>
+    <t>13616207685</t>
+  </si>
+  <si>
+    <t>13616207789</t>
+  </si>
+  <si>
+    <t>13616207910</t>
+  </si>
+  <si>
+    <t>13616207970</t>
+  </si>
+  <si>
+    <t>13616208047</t>
+  </si>
+  <si>
+    <t>13616208239</t>
+  </si>
+  <si>
+    <t>13616208637</t>
+  </si>
+  <si>
+    <t>13616209098</t>
+  </si>
+  <si>
+    <t>13616209157</t>
+  </si>
+  <si>
+    <t>13616209220</t>
+  </si>
+  <si>
+    <t>13616209229</t>
+  </si>
+  <si>
+    <t>13616209351</t>
+  </si>
+  <si>
+    <t>13616209555</t>
+  </si>
+  <si>
+    <t>13616209607</t>
+  </si>
+  <si>
+    <t>13616209764</t>
+  </si>
+  <si>
+    <t>13616210384</t>
+  </si>
+  <si>
+    <t>13616210522</t>
+  </si>
+  <si>
+    <t>13616210862</t>
+  </si>
+  <si>
+    <t>13616211013</t>
+  </si>
+  <si>
+    <t>13616211110</t>
+  </si>
+  <si>
+    <t>13616211208</t>
+  </si>
+  <si>
+    <t>13616211242</t>
+  </si>
+  <si>
+    <t>13616211339</t>
+  </si>
+  <si>
+    <t>13616211909</t>
+  </si>
+  <si>
+    <t>13616212604</t>
+  </si>
+  <si>
+    <t>13616212889</t>
+  </si>
+  <si>
+    <t>13616213356</t>
+  </si>
+  <si>
+    <t>13616213378</t>
+  </si>
+  <si>
+    <t>13616213796</t>
+  </si>
+  <si>
+    <t>13616213826</t>
+  </si>
+  <si>
+    <t>13616214255</t>
+  </si>
+  <si>
+    <t>13616214473</t>
+  </si>
+  <si>
+    <t>13616214912</t>
+  </si>
+  <si>
+    <t>13616215458</t>
+  </si>
+  <si>
+    <t>13616215483</t>
+  </si>
+  <si>
+    <t>13616216341</t>
+  </si>
+  <si>
+    <t>13616216345</t>
+  </si>
+  <si>
+    <t>13616216401</t>
+  </si>
+  <si>
+    <t>13616216497</t>
+  </si>
+  <si>
+    <t>13616216762</t>
+  </si>
+  <si>
+    <t>13616217527</t>
+  </si>
+  <si>
+    <t>13616217569</t>
+  </si>
+  <si>
+    <t>13616217575</t>
+  </si>
+  <si>
+    <t>13616217656</t>
+  </si>
+  <si>
+    <t>13616217709</t>
+  </si>
+  <si>
+    <t>13616218224</t>
+  </si>
+  <si>
+    <t>13616218320</t>
+  </si>
+  <si>
+    <t>13616218358</t>
+  </si>
+  <si>
+    <t>13616218590</t>
+  </si>
+  <si>
+    <t>13616218609</t>
+  </si>
+  <si>
+    <t>13616218610</t>
+  </si>
+  <si>
+    <t>13616218889</t>
+  </si>
+  <si>
+    <t>13616219488</t>
+  </si>
+  <si>
+    <t>13616219647</t>
+  </si>
+  <si>
+    <t>13616219842</t>
+  </si>
+  <si>
+    <t>13616224418</t>
+  </si>
+  <si>
+    <t>13616228353</t>
+  </si>
+  <si>
+    <t>13616231141</t>
+  </si>
+  <si>
+    <t>13616231402</t>
+  </si>
+  <si>
+    <t>13616233851</t>
+  </si>
+  <si>
+    <t>13616234956</t>
+  </si>
+  <si>
+    <t>13616236535</t>
+  </si>
+  <si>
+    <t>13616241393</t>
+  </si>
+  <si>
+    <t>13616255888</t>
+  </si>
+  <si>
+    <t>13616258092</t>
+  </si>
+  <si>
+    <t>13616259786</t>
+  </si>
+  <si>
+    <t>13616259921</t>
+  </si>
+  <si>
+    <t>13616260492</t>
+  </si>
+  <si>
+    <t>13616268160</t>
+  </si>
+  <si>
+    <t>13616270181</t>
+  </si>
+  <si>
+    <t>13616270378</t>
+  </si>
+  <si>
+    <t>13616270515</t>
+  </si>
+  <si>
+    <t>13616271018</t>
+  </si>
+  <si>
+    <t>13616271535</t>
+  </si>
+  <si>
+    <t>13616271768</t>
+  </si>
+  <si>
+    <t>13616271915</t>
+  </si>
+  <si>
+    <t>13616272541</t>
+  </si>
+  <si>
+    <t>13616273657</t>
+  </si>
+  <si>
+    <t>13616273665</t>
+  </si>
+  <si>
+    <t>13616273771</t>
+  </si>
+  <si>
+    <t>13616273851</t>
+  </si>
+  <si>
+    <t>13616274693</t>
+  </si>
+  <si>
+    <t>13616275350</t>
+  </si>
+  <si>
+    <t>13616275612</t>
+  </si>
+  <si>
+    <t>13616275773</t>
+  </si>
+  <si>
+    <t>13616276200</t>
+  </si>
+  <si>
+    <t>13616276267</t>
+  </si>
+  <si>
+    <t>13616276551</t>
+  </si>
+  <si>
+    <t>13616276711</t>
+  </si>
+  <si>
+    <t>13616276904</t>
+  </si>
+  <si>
+    <t>13616277018</t>
+  </si>
+  <si>
+    <t>13616279138</t>
+  </si>
+  <si>
+    <t>13616279330</t>
+  </si>
+  <si>
+    <t>13616279856</t>
+  </si>
+  <si>
+    <t>13616279933</t>
+  </si>
+  <si>
+    <t>13616279951</t>
+  </si>
+  <si>
+    <t>13616288256</t>
+  </si>
+  <si>
+    <t>13616419274</t>
+  </si>
+  <si>
+    <t>13616665511</t>
+  </si>
+  <si>
+    <t>13617486825</t>
+  </si>
+  <si>
+    <t>13621111208</t>
+  </si>
+  <si>
+    <t>13621541604</t>
+  </si>
+  <si>
+    <t>13621552055</t>
+  </si>
+  <si>
+    <t>13621553778</t>
+  </si>
+  <si>
+    <t>13621561212</t>
+  </si>
+  <si>
+    <t>13621561716</t>
+  </si>
+  <si>
+    <t>13621567782</t>
+  </si>
+  <si>
+    <t>13621579419</t>
+  </si>
+  <si>
+    <t>13621625417</t>
+  </si>
+  <si>
+    <t>13621677035</t>
+  </si>
+  <si>
+    <t>13621811283</t>
+  </si>
+  <si>
+    <t>13621822898</t>
+  </si>
+  <si>
+    <t>13621841151</t>
+  </si>
+  <si>
+    <t>13621881560</t>
+  </si>
+  <si>
+    <t>13621962105</t>
+  </si>
+  <si>
+    <t>13624568028</t>
+  </si>
+  <si>
+    <t>13625160093</t>
+  </si>
+  <si>
+    <t>13625193663</t>
+  </si>
+  <si>
+    <t>13625270176</t>
+  </si>
+  <si>
+    <t>13625270385</t>
+  </si>
+  <si>
+    <t>13625270557</t>
+  </si>
+  <si>
+    <t>13625271093</t>
+  </si>
+  <si>
+    <t>13625271881</t>
+  </si>
+  <si>
+    <t>13625272086</t>
+  </si>
+  <si>
+    <t>13625272090</t>
+  </si>
+  <si>
+    <t>13625272169</t>
+  </si>
+  <si>
+    <t>13625272195</t>
+  </si>
+  <si>
+    <t>13625272969</t>
+  </si>
+  <si>
+    <t>13625273046</t>
+  </si>
+  <si>
+    <t>13625273185</t>
+  </si>
+  <si>
+    <t>13625273661</t>
+  </si>
+  <si>
+    <t>13625274271</t>
+  </si>
+  <si>
+    <t>13625274323</t>
+  </si>
+  <si>
+    <t>13625274676</t>
+  </si>
+  <si>
+    <t>13625275202</t>
+  </si>
+  <si>
+    <t>13625275500</t>
+  </si>
+  <si>
+    <t>13625275733</t>
+  </si>
+  <si>
+    <t>13625275980</t>
+  </si>
+  <si>
+    <t>13625276485</t>
+  </si>
+  <si>
+    <t>13625277068</t>
+  </si>
+  <si>
+    <t>13625277092</t>
+  </si>
+  <si>
+    <t>13625277677</t>
+  </si>
+  <si>
+    <t>13625277693</t>
+  </si>
+  <si>
+    <t>13625278055</t>
+  </si>
+  <si>
+    <t>13625278116</t>
+  </si>
+  <si>
+    <t>13625278233</t>
+  </si>
+  <si>
+    <t>13625278645</t>
+  </si>
+  <si>
+    <t>13625278705</t>
+  </si>
+  <si>
+    <t>13625279579</t>
+  </si>
+  <si>
+    <t>13625279697</t>
+  </si>
+  <si>
+    <t>13625280060</t>
+  </si>
+  <si>
+    <t>13625280166</t>
+  </si>
+  <si>
+    <t>13625280201</t>
+  </si>
+  <si>
+    <t>13625280330</t>
+  </si>
+  <si>
+    <t>13625280585</t>
+  </si>
+  <si>
+    <t>13625281759</t>
+  </si>
+  <si>
+    <t>13625282711</t>
+  </si>
+  <si>
+    <t>13625282820</t>
+  </si>
+  <si>
+    <t>13625282827</t>
+  </si>
+  <si>
+    <t>13625283199</t>
+  </si>
+  <si>
+    <t>13625283355</t>
+  </si>
+  <si>
+    <t>13625283381</t>
+  </si>
+  <si>
+    <t>13625283438</t>
+  </si>
+  <si>
+    <t>13625283477</t>
+  </si>
+  <si>
+    <t>13625283610</t>
+  </si>
+  <si>
+    <t>13625283683</t>
+  </si>
+  <si>
+    <t>13625283909</t>
+  </si>
+  <si>
+    <t>13625283972</t>
+  </si>
+  <si>
+    <t>13625284246</t>
+  </si>
+  <si>
+    <t>13625284518</t>
+  </si>
+  <si>
+    <t>13625284881</t>
+  </si>
+  <si>
+    <t>13625285190</t>
+  </si>
+  <si>
+    <t>13625285230</t>
+  </si>
+  <si>
+    <t>13625286452</t>
+  </si>
+  <si>
+    <t>13625287129</t>
+  </si>
+  <si>
+    <t>13625287556</t>
+  </si>
+  <si>
+    <t>13625287982</t>
+  </si>
+  <si>
+    <t>13625288058</t>
+  </si>
+  <si>
+    <t>13625288098</t>
+  </si>
+  <si>
+    <t>13625289074</t>
+  </si>
+  <si>
+    <t>13625289389</t>
+  </si>
+  <si>
+    <t>13625289455</t>
+  </si>
+  <si>
+    <t>13625289617</t>
+  </si>
+  <si>
+    <t>13625289669</t>
+  </si>
+  <si>
+    <t>13625290248</t>
+  </si>
+  <si>
+    <t>13625290670</t>
+  </si>
+  <si>
+    <t>13625290976</t>
+  </si>
+  <si>
+    <t>13625291355</t>
+  </si>
+  <si>
+    <t>13625292051</t>
+  </si>
+  <si>
+    <t>13625292636</t>
+  </si>
+  <si>
+    <t>13625292805</t>
+  </si>
+  <si>
+    <t>13625292928</t>
+  </si>
+  <si>
+    <t>13625293153</t>
+  </si>
+  <si>
+    <t>13625293808</t>
+  </si>
+  <si>
+    <t>13625293887</t>
+  </si>
+  <si>
+    <t>13625294759</t>
+  </si>
+  <si>
+    <t>13625295218</t>
+  </si>
+  <si>
+    <t>13625295227</t>
+  </si>
+  <si>
+    <t>13625295279</t>
+  </si>
+  <si>
+    <t>13625295290</t>
+  </si>
+  <si>
+    <t>13625296216</t>
+  </si>
+  <si>
+    <t>13625296308</t>
+  </si>
+  <si>
+    <t>13625296488</t>
+  </si>
+  <si>
+    <t>13625296709</t>
+  </si>
+  <si>
+    <t>13625296809</t>
+  </si>
+  <si>
+    <t>13625297172</t>
+  </si>
+  <si>
+    <t>13625297567</t>
+  </si>
+  <si>
+    <t>13625298132</t>
+  </si>
+  <si>
+    <t>13625298987</t>
+  </si>
+  <si>
+    <t>13625299551</t>
+  </si>
+  <si>
+    <t>13625299554</t>
+  </si>
+  <si>
+    <t>13625299587</t>
+  </si>
+  <si>
+    <t>13625299688</t>
+  </si>
+  <si>
+    <t>13625299977</t>
+  </si>
+  <si>
+    <t>13626190858</t>
+  </si>
+  <si>
+    <t>13626190996</t>
+  </si>
+  <si>
+    <t>13626191002</t>
+  </si>
+  <si>
+    <t>13626191092</t>
+  </si>
+  <si>
+    <t>13626191149</t>
+  </si>
+  <si>
+    <t>13626191722</t>
+  </si>
+  <si>
+    <t>13626191882</t>
+  </si>
+  <si>
+    <t>13626191890</t>
+  </si>
+  <si>
+    <t>13626193035</t>
+  </si>
+  <si>
+    <t>13626193202</t>
+  </si>
+  <si>
+    <t>13626193262</t>
+  </si>
+  <si>
+    <t>13626193688</t>
+  </si>
+  <si>
+    <t>13626193936</t>
+  </si>
+  <si>
+    <t>13626194284</t>
+  </si>
+  <si>
+    <t>13626194606</t>
+  </si>
+  <si>
+    <t>13626194850</t>
+  </si>
+  <si>
+    <t>13626196325</t>
+  </si>
+  <si>
+    <t>13626196546</t>
+  </si>
+  <si>
+    <t>13626196581</t>
+  </si>
+  <si>
+    <t>13626196612</t>
+  </si>
+  <si>
+    <t>13626196672</t>
+  </si>
+  <si>
+    <t>13626196780</t>
+  </si>
+  <si>
+    <t>13626197098</t>
+  </si>
+  <si>
+    <t>13626197199</t>
+  </si>
+  <si>
+    <t>13626197222</t>
+  </si>
+  <si>
+    <t>13626197787</t>
+  </si>
+  <si>
+    <t>13626197818</t>
+  </si>
+  <si>
+    <t>13626199760</t>
+  </si>
+  <si>
+    <t>13626199792</t>
+  </si>
+  <si>
+    <t>13626199936</t>
+  </si>
+  <si>
+    <t>13626200123</t>
+  </si>
+  <si>
+    <t>13626288796</t>
+  </si>
+  <si>
+    <t>13626748010</t>
+  </si>
+  <si>
+    <t>13633810007</t>
+  </si>
+  <si>
+    <t>13636309567</t>
+  </si>
+  <si>
+    <t>13636336829</t>
+  </si>
+  <si>
+    <t>13636354928</t>
+  </si>
+  <si>
+    <t>13636533029</t>
+  </si>
+  <si>
+    <t>13636608797</t>
+  </si>
+  <si>
+    <t>13636639567</t>
+  </si>
+  <si>
+    <t>13636641778</t>
+  </si>
+  <si>
+    <t>13636666847</t>
+  </si>
+  <si>
+    <t>13641633085</t>
+  </si>
+  <si>
+    <t>13641666001</t>
+  </si>
+  <si>
+    <t>13641698373</t>
+  </si>
+  <si>
+    <t>13641752695</t>
+  </si>
+  <si>
+    <t>13641769089</t>
+  </si>
+  <si>
+    <t>13641834286</t>
+  </si>
+  <si>
+    <t>13641972244</t>
+  </si>
+  <si>
+    <t>13641974386</t>
+  </si>
+  <si>
+    <t>13645180333</t>
+  </si>
+  <si>
+    <t>13645265495</t>
+  </si>
+  <si>
+    <t>13645536495</t>
+  </si>
+  <si>
+    <t>13645632522</t>
+  </si>
+  <si>
+    <t>13646201066</t>
+  </si>
+  <si>
+    <t>13646202238</t>
+  </si>
+  <si>
+    <t>13646202338</t>
+  </si>
+  <si>
+    <t>13646202566</t>
+  </si>
+  <si>
+    <t>13646203207</t>
+  </si>
+  <si>
+    <t>13646203218</t>
+  </si>
+  <si>
+    <t>13646203464</t>
+  </si>
+  <si>
+    <t>13646204260</t>
+  </si>
+  <si>
+    <t>13646205072</t>
+  </si>
+  <si>
+    <t>13646205779</t>
+  </si>
+  <si>
+    <t>13646205877</t>
+  </si>
+  <si>
+    <t>13646206089</t>
+  </si>
+  <si>
+    <t>13646206519</t>
+  </si>
+  <si>
+    <t>13646206527</t>
+  </si>
+  <si>
+    <t>13646207039</t>
+  </si>
+  <si>
+    <t>13646207842</t>
+  </si>
+  <si>
+    <t>13646207889</t>
+  </si>
+  <si>
+    <t>13646208149</t>
+  </si>
+  <si>
+    <t>13646208162</t>
+  </si>
+  <si>
+    <t>13646209386</t>
+  </si>
+  <si>
+    <t>13646209428</t>
+  </si>
+  <si>
+    <t>13646209737</t>
+  </si>
+  <si>
+    <t>13646209808</t>
+  </si>
+  <si>
+    <t>13646210188</t>
+  </si>
+  <si>
+    <t>13646210631</t>
+  </si>
+  <si>
+    <t>13646211254</t>
+  </si>
+  <si>
+    <t>13646211364</t>
+  </si>
+  <si>
+    <t>13646211644</t>
+  </si>
+  <si>
+    <t>13646211944</t>
+  </si>
+  <si>
+    <t>13646212718</t>
+  </si>
+  <si>
+    <t>13646212777</t>
+  </si>
+  <si>
+    <t>13646212990</t>
+  </si>
+  <si>
+    <t>13646213011</t>
+  </si>
+  <si>
+    <t>13646213141</t>
+  </si>
+  <si>
+    <t>13646213639</t>
+  </si>
+  <si>
+    <t>13646213744</t>
+  </si>
+  <si>
+    <t>13646213982</t>
+  </si>
+  <si>
+    <t>13646214885</t>
+  </si>
+  <si>
+    <t>13646214921</t>
+  </si>
+  <si>
+    <t>13646215113</t>
+  </si>
+  <si>
+    <t>13646215151</t>
+  </si>
+  <si>
+    <t>13646215311</t>
+  </si>
+  <si>
+    <t>13646216058</t>
+  </si>
+  <si>
+    <t>13646217019</t>
+  </si>
+  <si>
+    <t>13646217434</t>
+  </si>
+  <si>
+    <t>13646217612</t>
+  </si>
+  <si>
+    <t>13646217744</t>
+  </si>
+  <si>
+    <t>13646218219</t>
+  </si>
+  <si>
+    <t>13646218397</t>
+  </si>
+  <si>
+    <t>13646218621</t>
+  </si>
+  <si>
+    <t>13646218663</t>
+  </si>
+  <si>
+    <t>13646218884</t>
+  </si>
+  <si>
+    <t>13646219388</t>
+  </si>
+  <si>
+    <t>13646219543</t>
+  </si>
+  <si>
+    <t>13646219561</t>
+  </si>
+  <si>
+    <t>13646219750</t>
+  </si>
+  <si>
+    <t>13646219788</t>
+  </si>
+  <si>
+    <t>13646219789</t>
+  </si>
+  <si>
+    <t>13646219851</t>
+  </si>
+  <si>
+    <t>13646220155</t>
+  </si>
+  <si>
+    <t>13646220178</t>
+  </si>
+  <si>
+    <t>13646220821</t>
+  </si>
+  <si>
+    <t>13646221029</t>
+  </si>
+  <si>
+    <t>13646221068</t>
+  </si>
+  <si>
+    <t>13646221196</t>
+  </si>
+  <si>
+    <t>13646221278</t>
+  </si>
+  <si>
+    <t>13646221431</t>
+  </si>
+  <si>
+    <t>13646221757</t>
+  </si>
+  <si>
+    <t>13646221868</t>
+  </si>
+  <si>
+    <t>13646222225</t>
+  </si>
+  <si>
+    <t>13646222372</t>
+  </si>
+  <si>
+    <t>13646222396</t>
+  </si>
+  <si>
+    <t>13646222423</t>
+  </si>
+  <si>
+    <t>13646222632</t>
+  </si>
+  <si>
+    <t>13646222778</t>
+  </si>
+  <si>
+    <t>13646222973</t>
+  </si>
+  <si>
+    <t>13646223158</t>
+  </si>
+  <si>
+    <t>13646223418</t>
+  </si>
+  <si>
+    <t>13646223643</t>
+  </si>
+  <si>
+    <t>13646224742</t>
+  </si>
+  <si>
+    <t>13646225100</t>
+  </si>
+  <si>
+    <t>13646225169</t>
+  </si>
+  <si>
+    <t>13646225191</t>
+  </si>
+  <si>
+    <t>13646226500</t>
+  </si>
+  <si>
+    <t>13646226568</t>
+  </si>
+  <si>
+    <t>13646226636</t>
+  </si>
+  <si>
+    <t>13646226761</t>
+  </si>
+  <si>
+    <t>13646227337</t>
+  </si>
+  <si>
+    <t>13646227654</t>
+  </si>
+  <si>
+    <t>13646227679</t>
+  </si>
+  <si>
+    <t>13646227946</t>
+  </si>
+  <si>
+    <t>13646228225</t>
+  </si>
+  <si>
+    <t>13646228618</t>
+  </si>
+  <si>
+    <t>13646228968</t>
+  </si>
+  <si>
+    <t>13646229022</t>
+  </si>
+  <si>
+    <t>13646233268</t>
+  </si>
+  <si>
+    <t>13646233518</t>
+  </si>
+  <si>
+    <t>13646237200</t>
+  </si>
+  <si>
+    <t>13646238663</t>
+  </si>
+  <si>
+    <t>13646253804</t>
+  </si>
+  <si>
+    <t>13646255317</t>
+  </si>
+  <si>
+    <t>13646258969</t>
+  </si>
+  <si>
+    <t>13646259504</t>
+  </si>
+  <si>
+    <t>13649186502</t>
+  </si>
+  <si>
+    <t>13651100820</t>
+  </si>
+  <si>
+    <t>13651674208</t>
+  </si>
+  <si>
+    <t>13651806202</t>
+  </si>
+  <si>
+    <t>13651854773</t>
+  </si>
+  <si>
+    <t>13651987110</t>
+  </si>
+  <si>
+    <t>13652978513</t>
+  </si>
+  <si>
+    <t>13653231120</t>
+  </si>
+  <si>
+    <t>13654634036</t>
+  </si>
+  <si>
+    <t>13655734821</t>
+  </si>
+  <si>
+    <t>13656186522</t>
+  </si>
+  <si>
+    <t>13656200108</t>
+  </si>
+  <si>
+    <t>13656200123</t>
+  </si>
+  <si>
+    <t>13656200273</t>
+  </si>
+  <si>
+    <t>13656200411</t>
+  </si>
+  <si>
+    <t>13656200659</t>
+  </si>
+  <si>
+    <t>13656201508</t>
+  </si>
+  <si>
+    <t>13656202384</t>
+  </si>
+  <si>
+    <t>13656202562</t>
+  </si>
+  <si>
+    <t>13656202855</t>
+  </si>
+  <si>
+    <t>13656202858</t>
+  </si>
+  <si>
+    <t>13656202880</t>
+  </si>
+  <si>
+    <t>13656202888</t>
+  </si>
+  <si>
+    <t>13656202946</t>
+  </si>
+  <si>
+    <t>13656203153</t>
+  </si>
+  <si>
+    <t>13656203365</t>
+  </si>
+  <si>
+    <t>13656203423</t>
+  </si>
+  <si>
+    <t>13656203679</t>
+  </si>
+  <si>
+    <t>13656204030</t>
+  </si>
+  <si>
+    <t>13656204177</t>
+  </si>
+  <si>
+    <t>13656205568</t>
+  </si>
+  <si>
+    <t>13656205694</t>
+  </si>
+  <si>
+    <t>13656206011</t>
+  </si>
+  <si>
+    <t>13656206307</t>
+  </si>
+  <si>
+    <t>13656206512</t>
+  </si>
+  <si>
+    <t>13656206705</t>
+  </si>
+  <si>
+    <t>13656206766</t>
+  </si>
+  <si>
+    <t>13656206870</t>
+  </si>
+  <si>
+    <t>13656207033</t>
+  </si>
+  <si>
+    <t>13656207713</t>
+  </si>
+  <si>
+    <t>13656207897</t>
+  </si>
+  <si>
+    <t>13656207998</t>
+  </si>
+  <si>
+    <t>13656208604</t>
+  </si>
+  <si>
+    <t>13656208651</t>
+  </si>
+  <si>
+    <t>13656208858</t>
+  </si>
+  <si>
+    <t>13656209558</t>
+  </si>
+  <si>
+    <t>13656209653</t>
+  </si>
+  <si>
+    <t>13656209844</t>
+  </si>
+  <si>
+    <t>13656209901</t>
+  </si>
+  <si>
+    <t>13656209920</t>
+  </si>
+  <si>
+    <t>13656210240</t>
+  </si>
+  <si>
+    <t>13656210488</t>
+  </si>
+  <si>
+    <t>13656210531</t>
+  </si>
+  <si>
+    <t>13656210912</t>
+  </si>
+  <si>
+    <t>13656210977</t>
+  </si>
+  <si>
+    <t>13656211133</t>
+  </si>
+  <si>
+    <t>13656211513</t>
+  </si>
+  <si>
+    <t>13656211677</t>
+  </si>
+  <si>
+    <t>13656211742</t>
+  </si>
+  <si>
+    <t>13656211828</t>
+  </si>
+  <si>
+    <t>13656211836</t>
+  </si>
+  <si>
+    <t>13656211889</t>
+  </si>
+  <si>
+    <t>13656212897</t>
+  </si>
+  <si>
+    <t>13656213031</t>
+  </si>
+  <si>
+    <t>13656213142</t>
+  </si>
+  <si>
+    <t>13656213151</t>
+  </si>
+  <si>
+    <t>13656213159</t>
+  </si>
+  <si>
+    <t>13656213457</t>
+  </si>
+  <si>
+    <t>13656213696</t>
+  </si>
+  <si>
+    <t>13656213712</t>
+  </si>
+  <si>
+    <t>13656214599</t>
+  </si>
+  <si>
+    <t>13656214603</t>
+  </si>
+  <si>
+    <t>13656216305</t>
+  </si>
+  <si>
+    <t>13656216556</t>
+  </si>
+  <si>
+    <t>13656216606</t>
+  </si>
+  <si>
+    <t>13656216763</t>
+  </si>
+  <si>
+    <t>13656216825</t>
+  </si>
+  <si>
+    <t>13656217163</t>
+  </si>
+  <si>
+    <t>13656217164</t>
+  </si>
+  <si>
+    <t>13656217186</t>
+  </si>
+  <si>
+    <t>13656217278</t>
+  </si>
+  <si>
+    <t>13656217424</t>
+  </si>
+  <si>
+    <t>13656217589</t>
+  </si>
+  <si>
+    <t>13656217827</t>
+  </si>
+  <si>
+    <t>13656218618</t>
+  </si>
+  <si>
+    <t>13656218706</t>
+  </si>
+  <si>
+    <t>13656218857</t>
+  </si>
+  <si>
+    <t>13656218990</t>
+  </si>
+  <si>
+    <t>13656219077</t>
+  </si>
+  <si>
+    <t>13656219297</t>
+  </si>
+  <si>
+    <t>13656219317</t>
+  </si>
+  <si>
+    <t>13656219569</t>
+  </si>
+  <si>
+    <t>13656219916</t>
+  </si>
+  <si>
+    <t>13656220343</t>
+  </si>
+  <si>
+    <t>13656220398</t>
+  </si>
+  <si>
+    <t>13656220430</t>
+  </si>
+  <si>
+    <t>13656220922</t>
+  </si>
+  <si>
+    <t>13656221034</t>
+  </si>
+  <si>
+    <t>13656221043</t>
+  </si>
+  <si>
+    <t>13656221365</t>
+  </si>
+  <si>
+    <t>13656221458</t>
+  </si>
+  <si>
+    <t>13656221611</t>
+  </si>
+  <si>
+    <t>13656221617</t>
+  </si>
+  <si>
+    <t>13656221646</t>
+  </si>
+  <si>
+    <t>13656221756</t>
+  </si>
+  <si>
+    <t>13656221768</t>
+  </si>
+  <si>
+    <t>13656221955</t>
+  </si>
+  <si>
+    <t>13656222235</t>
+  </si>
+  <si>
+    <t>13656222425</t>
+  </si>
+  <si>
+    <t>13656222566</t>
+  </si>
+  <si>
+    <t>13656222701</t>
+  </si>
+  <si>
+    <t>13656222781</t>
+  </si>
+  <si>
+    <t>13656223066</t>
+  </si>
+  <si>
+    <t>13656224211</t>
+  </si>
+  <si>
+    <t>13656224523</t>
+  </si>
+  <si>
+    <t>13656224648</t>
+  </si>
+  <si>
+    <t>13656224770</t>
+  </si>
+  <si>
+    <t>13656224810</t>
+  </si>
+  <si>
+    <t>13656224880</t>
+  </si>
+  <si>
+    <t>13656225042</t>
+  </si>
+  <si>
+    <t>13656225056</t>
+  </si>
+  <si>
+    <t>13656225111</t>
+  </si>
+  <si>
+    <t>13656225226</t>
+  </si>
+  <si>
+    <t>13656225327</t>
+  </si>
+  <si>
+    <t>13656225344</t>
+  </si>
+  <si>
+    <t>13656225504</t>
+  </si>
+  <si>
+    <t>13656225516</t>
+  </si>
+  <si>
+    <t>13656225701</t>
+  </si>
+  <si>
+    <t>13656225724</t>
+  </si>
+  <si>
+    <t>13656225764</t>
+  </si>
+  <si>
+    <t>13656226540</t>
+  </si>
+  <si>
+    <t>13656227080</t>
+  </si>
+  <si>
+    <t>13656227085</t>
+  </si>
+  <si>
+    <t>13656227894</t>
+  </si>
+  <si>
+    <t>13656228060</t>
+  </si>
+  <si>
+    <t>13656228099</t>
+  </si>
+  <si>
+    <t>13656228337</t>
+  </si>
+  <si>
+    <t>13656228412</t>
+  </si>
+  <si>
+    <t>13656228754</t>
+  </si>
+  <si>
+    <t>13656229964</t>
+  </si>
+  <si>
+    <t>13656230675</t>
+  </si>
+  <si>
+    <t>13656230848</t>
+  </si>
+  <si>
+    <t>13656230854</t>
+  </si>
+  <si>
+    <t>13656231120</t>
+  </si>
+  <si>
+    <t>13656231169</t>
+  </si>
+  <si>
+    <t>13656231187</t>
+  </si>
+  <si>
+    <t>13656231314</t>
+  </si>
+  <si>
+    <t>13656231525</t>
+  </si>
+  <si>
+    <t>13656231924</t>
+  </si>
+  <si>
+    <t>13656232051</t>
+  </si>
+  <si>
+    <t>13656232056</t>
+  </si>
+  <si>
+    <t>13656232462</t>
+  </si>
+  <si>
+    <t>13656232554</t>
+  </si>
+  <si>
+    <t>13656233421</t>
+  </si>
+  <si>
+    <t>13656233522</t>
+  </si>
+  <si>
+    <t>13656233523</t>
+  </si>
+  <si>
+    <t>13656233566</t>
+  </si>
+  <si>
+    <t>13656234925</t>
+  </si>
+  <si>
+    <t>13656235280</t>
+  </si>
+  <si>
+    <t>13656235771</t>
+  </si>
+  <si>
+    <t>13656235903</t>
+  </si>
+  <si>
+    <t>13656236105</t>
+  </si>
+  <si>
+    <t>13656236386</t>
+  </si>
+  <si>
+    <t>13656236440</t>
+  </si>
+  <si>
+    <t>13656236639</t>
+  </si>
+  <si>
+    <t>13656237034</t>
+  </si>
+  <si>
+    <t>13656237123</t>
+  </si>
+  <si>
+    <t>13656237516</t>
+  </si>
+  <si>
+    <t>13656237984</t>
+  </si>
+  <si>
+    <t>13656238727</t>
+  </si>
+  <si>
+    <t>13656239176</t>
+  </si>
+  <si>
+    <t>13656239218</t>
+  </si>
+  <si>
+    <t>13656239409</t>
+  </si>
+  <si>
+    <t>13656239664</t>
+  </si>
+  <si>
+    <t>13656239696</t>
+  </si>
+  <si>
+    <t>13656239884</t>
+  </si>
+  <si>
+    <t>13656240355</t>
+  </si>
+  <si>
+    <t>13656240839</t>
+  </si>
+  <si>
+    <t>13656240864</t>
+  </si>
+  <si>
+    <t>13656240955</t>
+  </si>
+  <si>
+    <t>13656241613</t>
+  </si>
+  <si>
+    <t>13656242152</t>
+  </si>
+  <si>
+    <t>13656242173</t>
+  </si>
+  <si>
+    <t>13656242948</t>
+  </si>
+  <si>
+    <t>13656243001</t>
+  </si>
+  <si>
+    <t>13656243048</t>
+  </si>
+  <si>
+    <t>13656243162</t>
+  </si>
+  <si>
+    <t>13656243377</t>
+  </si>
+  <si>
+    <t>13656243536</t>
+  </si>
+  <si>
+    <t>13656243728</t>
+  </si>
+  <si>
+    <t>13656244518</t>
+  </si>
+  <si>
+    <t>13656244551</t>
+  </si>
+  <si>
+    <t>13656244949</t>
+  </si>
+  <si>
+    <t>13656245134</t>
+  </si>
+  <si>
+    <t>13656245688</t>
+  </si>
+  <si>
+    <t>13656245750</t>
+  </si>
+  <si>
+    <t>13656245890</t>
+  </si>
+  <si>
+    <t>13656246192</t>
+  </si>
+  <si>
+    <t>13656246258</t>
+  </si>
+  <si>
+    <t>13656246277</t>
+  </si>
+  <si>
+    <t>13656246929</t>
+  </si>
+  <si>
+    <t>13656247063</t>
+  </si>
+  <si>
+    <t>13656247250</t>
+  </si>
+  <si>
+    <t>13656248189</t>
+  </si>
+  <si>
+    <t>13656249266</t>
+  </si>
+  <si>
+    <t>13656249596</t>
+  </si>
+  <si>
+    <t>13656249880</t>
+  </si>
+  <si>
+    <t>13656266222</t>
+  </si>
+  <si>
+    <t>13656878878</t>
+  </si>
+  <si>
+    <t>13657116666</t>
+  </si>
+  <si>
+    <t>13657205688</t>
+  </si>
+  <si>
+    <t>13657332697</t>
+  </si>
+  <si>
+    <t>13660032165</t>
+  </si>
+  <si>
+    <t>13661135327</t>
+  </si>
+  <si>
+    <t>13661605033</t>
+  </si>
+  <si>
+    <t>13661665688</t>
+  </si>
+  <si>
+    <t>13661718622</t>
+  </si>
+  <si>
+    <t>13661810595</t>
+  </si>
+  <si>
+    <t>13661833902</t>
+  </si>
+  <si>
+    <t>13662662375</t>
+  </si>
+  <si>
+    <t>13665158866</t>
+  </si>
+  <si>
+    <t>13665659643</t>
+  </si>
+  <si>
+    <t>13666213633</t>
+  </si>
+  <si>
+    <t>13669318285</t>
+  </si>
+  <si>
+    <t>13670184939</t>
+  </si>
+  <si>
+    <t>13671553612</t>
+  </si>
+  <si>
+    <t>13671649239</t>
+  </si>
+  <si>
+    <t>13671691048</t>
+  </si>
+  <si>
+    <t>13671749798</t>
+  </si>
+  <si>
+    <t>13671753331</t>
+  </si>
+  <si>
+    <t>13671767601</t>
+  </si>
+  <si>
+    <t>13671783696</t>
+  </si>
+  <si>
+    <t>13671787211</t>
+  </si>
+  <si>
+    <t>13671831516</t>
+  </si>
+  <si>
+    <t>13671876036</t>
+  </si>
+  <si>
+    <t>13671937971</t>
+  </si>
+  <si>
+    <t>13671954301</t>
+  </si>
+  <si>
+    <t>13674930707</t>
+  </si>
+  <si>
+    <t>13675106111</t>
+  </si>
+  <si>
+    <t>13675110580</t>
+  </si>
+  <si>
+    <t>13675537999</t>
+  </si>
+  <si>
+    <t>13679228359</t>
+  </si>
+  <si>
+    <t>13681446434</t>
+  </si>
+  <si>
+    <t>13681601869</t>
+  </si>
+  <si>
+    <t>13681630866</t>
+  </si>
+  <si>
+    <t>13681652478</t>
+  </si>
+  <si>
+    <t>13681678126</t>
+  </si>
+  <si>
+    <t>13681695095</t>
+  </si>
+  <si>
+    <t>13681725963</t>
+  </si>
+  <si>
+    <t>13681729040</t>
+  </si>
+  <si>
+    <t>13681840755</t>
+  </si>
+  <si>
+    <t>13681933409</t>
+  </si>
+  <si>
+    <t>13681964866</t>
+  </si>
+  <si>
+    <t>13683768760</t>
+  </si>
+  <si>
+    <t>13688773825</t>
+  </si>
+  <si>
+    <t>13688809216</t>
+  </si>
+  <si>
+    <t>13691120689</t>
+  </si>
+  <si>
+    <t>13700592145</t>
+  </si>
+  <si>
+    <t>13701159937</t>
+  </si>
+  <si>
+    <t>13701212655</t>
+  </si>
+  <si>
+    <t>13701319138</t>
+  </si>
+  <si>
+    <t>13701404381</t>
+  </si>
+  <si>
+    <t>13701410222</t>
+  </si>
+  <si>
+    <t>13701410242</t>
+  </si>
+  <si>
+    <t>13701410480</t>
+  </si>
+  <si>
+    <t>13701410680</t>
+  </si>
+  <si>
+    <t>13701410766</t>
+  </si>
+  <si>
+    <t>13701411053</t>
+  </si>
+  <si>
+    <t>13701411627</t>
+  </si>
+  <si>
+    <t>13701412249</t>
+  </si>
+  <si>
+    <t>13701412804</t>
+  </si>
+  <si>
+    <t>13701413263</t>
+  </si>
+  <si>
+    <t>13701413766</t>
+  </si>
+  <si>
+    <t>13701413996</t>
+  </si>
+  <si>
+    <t>13701414045</t>
+  </si>
+  <si>
+    <t>13701414869</t>
+  </si>
+  <si>
+    <t>13701414970</t>
+  </si>
+  <si>
+    <t>13701415054</t>
+  </si>
+  <si>
+    <t>13701415443</t>
+  </si>
+  <si>
+    <t>13701415491</t>
+  </si>
+  <si>
+    <t>13701415623</t>
+  </si>
+  <si>
+    <t>13701415709</t>
+  </si>
+  <si>
+    <t>13701416029</t>
+  </si>
+  <si>
+    <t>13701416642</t>
+  </si>
+  <si>
+    <t>13701416777</t>
+  </si>
+  <si>
+    <t>13701417426</t>
+  </si>
+  <si>
+    <t>13701417667</t>
+  </si>
+  <si>
+    <t>13701417713</t>
+  </si>
+  <si>
+    <t>13701418665</t>
+  </si>
+  <si>
+    <t>13701419460</t>
+  </si>
+  <si>
+    <t>13701419681</t>
+  </si>
+  <si>
+    <t>13701515601</t>
+  </si>
+  <si>
+    <t>13701540182</t>
+  </si>
+  <si>
+    <t>13701540315</t>
+  </si>
+  <si>
+    <t>13701540327</t>
+  </si>
+  <si>
+    <t>13701540429</t>
+  </si>
+  <si>
+    <t>13701540592</t>
+  </si>
+  <si>
+    <t>13701540598</t>
+  </si>
+  <si>
+    <t>13701540698</t>
+  </si>
+  <si>
+    <t>13701540760</t>
+  </si>
+  <si>
+    <t>13701540918</t>
+  </si>
+  <si>
+    <t>13701541136</t>
+  </si>
+  <si>
+    <t>13701541137</t>
+  </si>
+  <si>
+    <t>13701541653</t>
+  </si>
+  <si>
+    <t>13701541918</t>
+  </si>
+  <si>
+    <t>13701542621</t>
+  </si>
+  <si>
+    <t>13701543301</t>
+  </si>
+  <si>
+    <t>13701543341</t>
+  </si>
+  <si>
+    <t>13701543589</t>
+  </si>
+  <si>
+    <t>13701543948</t>
+  </si>
+  <si>
+    <t>13701543968</t>
+  </si>
+  <si>
+    <t>13701543976</t>
+  </si>
+  <si>
+    <t>13701544035</t>
+  </si>
+  <si>
+    <t>13701544108</t>
+  </si>
+  <si>
+    <t>13701544232</t>
+  </si>
+  <si>
+    <t>13701544288</t>
+  </si>
+  <si>
+    <t>13701544309</t>
+  </si>
+  <si>
+    <t>13701544748</t>
+  </si>
+  <si>
+    <t>13701545036</t>
+  </si>
+  <si>
+    <t>13701545109</t>
+  </si>
+  <si>
+    <t>13701545192</t>
+  </si>
+  <si>
+    <t>13701545221</t>
+  </si>
+  <si>
+    <t>13701545262</t>
+  </si>
+  <si>
+    <t>13701545289</t>
+  </si>
+  <si>
+    <t>13701545320</t>
+  </si>
+  <si>
+    <t>13701545711</t>
+  </si>
+  <si>
+    <t>13701545837</t>
+  </si>
+  <si>
+    <t>13701545965</t>
+  </si>
+  <si>
+    <t>13701546055</t>
+  </si>
+  <si>
+    <t>13701546105</t>
+  </si>
+  <si>
+    <t>13701546736</t>
+  </si>
+  <si>
+    <t>13701547273</t>
+  </si>
+  <si>
+    <t>13701547488</t>
+  </si>
+  <si>
+    <t>13701547576</t>
+  </si>
+  <si>
+    <t>13701547604</t>
+  </si>
+  <si>
+    <t>13701547731</t>
+  </si>
+  <si>
+    <t>13701547737</t>
+  </si>
+  <si>
+    <t>13701547756</t>
+  </si>
+  <si>
+    <t>13701548103</t>
+  </si>
+  <si>
+    <t>13701548386</t>
+  </si>
+  <si>
+    <t>13701548466</t>
+  </si>
+  <si>
+    <t>13701548893</t>
+  </si>
+  <si>
+    <t>13701548905</t>
+  </si>
+  <si>
+    <t>13701549087</t>
+  </si>
+  <si>
+    <t>13701549339</t>
+  </si>
+  <si>
+    <t>13701549432</t>
+  </si>
+  <si>
+    <t>13701549532</t>
+  </si>
+  <si>
+    <t>13701549576</t>
+  </si>
+  <si>
+    <t>13701549720</t>
+  </si>
+  <si>
+    <t>13701558897</t>
+  </si>
+  <si>
+    <t>13701571617</t>
+  </si>
+  <si>
+    <t>13701571650</t>
+  </si>
+  <si>
+    <t>13701576965</t>
+  </si>
+  <si>
+    <t>13701578828</t>
+  </si>
+  <si>
+    <t>13701607108</t>
+  </si>
+  <si>
+    <t>13701621463</t>
+  </si>
+  <si>
+    <t>13701631476</t>
+  </si>
+  <si>
+    <t>13701647847</t>
+  </si>
+  <si>
+    <t>13701678335</t>
+  </si>
+  <si>
+    <t>13701702647</t>
+  </si>
+  <si>
+    <t>13701703226</t>
+  </si>
+  <si>
+    <t>13701752869</t>
+  </si>
+  <si>
+    <t>13701815675</t>
+  </si>
+  <si>
+    <t>13701851895</t>
+  </si>
+  <si>
+    <t>13701864221</t>
+  </si>
+  <si>
+    <t>13701864561</t>
+  </si>
+  <si>
+    <t>13701970375</t>
+  </si>
+  <si>
+    <t>13702597506</t>
+  </si>
+  <si>
+    <t>13705101111</t>
+  </si>
+  <si>
+    <t>13705102475</t>
+  </si>
+  <si>
+    <t>13705119903</t>
+  </si>
+  <si>
+    <t>13705173628</t>
+  </si>
+  <si>
+    <t>13705299218</t>
+  </si>
+  <si>
+    <t>13705311681</t>
+  </si>
+  <si>
+    <t>13705618911</t>
+  </si>
+  <si>
+    <t>13705723996</t>
+  </si>
+  <si>
+    <t>13705741499</t>
+  </si>
+  <si>
+    <t>13705805952</t>
+  </si>
+  <si>
+    <t>13706130241</t>
+  </si>
+  <si>
+    <t>13706130379</t>
+  </si>
+  <si>
+    <t>13706130426</t>
+  </si>
+  <si>
+    <t>13706130841</t>
+  </si>
+  <si>
+    <t>13706130864</t>
+  </si>
+  <si>
+    <t>13706130903</t>
+  </si>
+  <si>
+    <t>13706130989</t>
+  </si>
+  <si>
+    <t>13706131037</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3443,6 +3007,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3476,7 +3048,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3780,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A1136"/>
+  <dimension ref="A1:A1137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8747,729 +8319,442 @@
       </c>
     </row>
     <row r="992" spans="1:1">
-      <c r="A992" s="2" t="s">
-        <v>991</v>
-      </c>
+      <c r="A992"/>
     </row>
     <row r="993" spans="1:1">
-      <c r="A993" s="2" t="s">
-        <v>992</v>
-      </c>
+      <c r="A993"/>
     </row>
     <row r="994" spans="1:1">
-      <c r="A994" s="2" t="s">
-        <v>993</v>
-      </c>
+      <c r="A994"/>
     </row>
     <row r="995" spans="1:1">
-      <c r="A995" s="2" t="s">
-        <v>994</v>
-      </c>
+      <c r="A995"/>
     </row>
     <row r="996" spans="1:1">
-      <c r="A996" s="2" t="s">
-        <v>995</v>
-      </c>
+      <c r="A996"/>
     </row>
     <row r="997" spans="1:1">
-      <c r="A997" s="2" t="s">
-        <v>996</v>
-      </c>
+      <c r="A997"/>
     </row>
     <row r="998" spans="1:1">
-      <c r="A998" s="2" t="s">
-        <v>997</v>
-      </c>
+      <c r="A998"/>
     </row>
     <row r="999" spans="1:1">
-      <c r="A999" s="2" t="s">
-        <v>998</v>
-      </c>
+      <c r="A999"/>
     </row>
     <row r="1000" spans="1:1">
-      <c r="A1000" s="2" t="s">
-        <v>999</v>
-      </c>
+      <c r="A1000"/>
     </row>
     <row r="1001" spans="1:1">
-      <c r="A1001" s="2" t="s">
-        <v>1000</v>
-      </c>
+      <c r="A1001"/>
     </row>
     <row r="1002" spans="1:1">
-      <c r="A1002" s="2" t="s">
-        <v>1001</v>
-      </c>
+      <c r="A1002"/>
     </row>
     <row r="1003" spans="1:1">
-      <c r="A1003" s="2" t="s">
-        <v>1002</v>
-      </c>
+      <c r="A1003"/>
     </row>
     <row r="1004" spans="1:1">
-      <c r="A1004" s="2" t="s">
-        <v>1003</v>
-      </c>
+      <c r="A1004"/>
     </row>
     <row r="1005" spans="1:1">
-      <c r="A1005" s="2" t="s">
-        <v>1004</v>
-      </c>
+      <c r="A1005"/>
     </row>
     <row r="1006" spans="1:1">
-      <c r="A1006" s="2" t="s">
-        <v>1005</v>
-      </c>
+      <c r="A1006"/>
     </row>
     <row r="1007" spans="1:1">
-      <c r="A1007" s="2" t="s">
-        <v>1006</v>
-      </c>
+      <c r="A1007"/>
     </row>
     <row r="1008" spans="1:1">
-      <c r="A1008" s="2" t="s">
-        <v>1007</v>
-      </c>
+      <c r="A1008"/>
     </row>
     <row r="1009" spans="1:1">
-      <c r="A1009" s="2" t="s">
-        <v>1008</v>
-      </c>
+      <c r="A1009"/>
     </row>
     <row r="1010" spans="1:1">
-      <c r="A1010" s="2" t="s">
-        <v>1009</v>
-      </c>
+      <c r="A1010"/>
     </row>
     <row r="1011" spans="1:1">
-      <c r="A1011" s="2" t="s">
-        <v>1010</v>
-      </c>
+      <c r="A1011"/>
     </row>
     <row r="1012" spans="1:1">
-      <c r="A1012" s="2" t="s">
-        <v>1011</v>
-      </c>
+      <c r="A1012"/>
     </row>
     <row r="1013" spans="1:1">
-      <c r="A1013" s="2" t="s">
-        <v>1012</v>
-      </c>
+      <c r="A1013"/>
     </row>
     <row r="1014" spans="1:1">
-      <c r="A1014" s="2" t="s">
-        <v>1013</v>
-      </c>
+      <c r="A1014"/>
     </row>
     <row r="1015" spans="1:1">
-      <c r="A1015" s="2" t="s">
-        <v>1014</v>
-      </c>
+      <c r="A1015"/>
     </row>
     <row r="1016" spans="1:1">
-      <c r="A1016" s="2" t="s">
-        <v>1015</v>
-      </c>
+      <c r="A1016"/>
     </row>
     <row r="1017" spans="1:1">
-      <c r="A1017" s="2" t="s">
-        <v>1016</v>
-      </c>
+      <c r="A1017"/>
     </row>
     <row r="1018" spans="1:1">
-      <c r="A1018" s="2" t="s">
-        <v>1017</v>
-      </c>
+      <c r="A1018"/>
     </row>
     <row r="1019" spans="1:1">
-      <c r="A1019" s="2" t="s">
-        <v>1018</v>
-      </c>
+      <c r="A1019"/>
     </row>
     <row r="1020" spans="1:1">
-      <c r="A1020" s="2" t="s">
-        <v>1019</v>
-      </c>
+      <c r="A1020"/>
     </row>
     <row r="1021" spans="1:1">
-      <c r="A1021" s="2" t="s">
-        <v>1020</v>
-      </c>
+      <c r="A1021"/>
     </row>
     <row r="1022" spans="1:1">
-      <c r="A1022" s="2" t="s">
-        <v>1021</v>
-      </c>
+      <c r="A1022"/>
     </row>
     <row r="1023" spans="1:1">
-      <c r="A1023" s="2" t="s">
-        <v>1022</v>
-      </c>
+      <c r="A1023"/>
     </row>
     <row r="1024" spans="1:1">
-      <c r="A1024" s="2" t="s">
-        <v>1023</v>
-      </c>
+      <c r="A1024"/>
     </row>
     <row r="1025" spans="1:1">
-      <c r="A1025" s="2" t="s">
-        <v>1024</v>
-      </c>
+      <c r="A1025"/>
     </row>
     <row r="1026" spans="1:1">
-      <c r="A1026" s="2" t="s">
-        <v>1025</v>
-      </c>
+      <c r="A1026"/>
     </row>
     <row r="1027" spans="1:1">
-      <c r="A1027" s="2" t="s">
-        <v>1026</v>
-      </c>
+      <c r="A1027"/>
     </row>
     <row r="1028" spans="1:1">
-      <c r="A1028" s="2" t="s">
-        <v>1027</v>
-      </c>
+      <c r="A1028"/>
     </row>
     <row r="1029" spans="1:1">
-      <c r="A1029" s="2" t="s">
-        <v>1028</v>
-      </c>
+      <c r="A1029"/>
     </row>
     <row r="1030" spans="1:1">
-      <c r="A1030" s="2" t="s">
-        <v>1029</v>
-      </c>
+      <c r="A1030"/>
     </row>
     <row r="1031" spans="1:1">
-      <c r="A1031" s="2" t="s">
-        <v>1030</v>
-      </c>
+      <c r="A1031"/>
     </row>
     <row r="1032" spans="1:1">
-      <c r="A1032" s="2" t="s">
-        <v>1031</v>
-      </c>
+      <c r="A1032"/>
     </row>
     <row r="1033" spans="1:1">
-      <c r="A1033" s="2" t="s">
-        <v>1032</v>
-      </c>
+      <c r="A1033"/>
     </row>
     <row r="1034" spans="1:1">
-      <c r="A1034" s="2" t="s">
-        <v>1033</v>
-      </c>
+      <c r="A1034"/>
     </row>
     <row r="1035" spans="1:1">
-      <c r="A1035" s="2" t="s">
-        <v>1034</v>
-      </c>
+      <c r="A1035"/>
     </row>
     <row r="1036" spans="1:1">
-      <c r="A1036" s="2" t="s">
-        <v>1035</v>
-      </c>
+      <c r="A1036"/>
     </row>
     <row r="1037" spans="1:1">
-      <c r="A1037" s="2" t="s">
-        <v>1036</v>
-      </c>
+      <c r="A1037"/>
     </row>
     <row r="1038" spans="1:1">
-      <c r="A1038" s="2" t="s">
-        <v>1037</v>
-      </c>
+      <c r="A1038"/>
     </row>
     <row r="1039" spans="1:1">
-      <c r="A1039" s="2" t="s">
-        <v>1038</v>
-      </c>
+      <c r="A1039"/>
     </row>
     <row r="1040" spans="1:1">
-      <c r="A1040" s="2" t="s">
-        <v>1039</v>
-      </c>
+      <c r="A1040"/>
     </row>
     <row r="1041" spans="1:1">
-      <c r="A1041" s="2" t="s">
-        <v>1040</v>
-      </c>
+      <c r="A1041"/>
     </row>
     <row r="1042" spans="1:1">
-      <c r="A1042" s="2" t="s">
-        <v>1041</v>
-      </c>
+      <c r="A1042"/>
     </row>
     <row r="1043" spans="1:1">
-      <c r="A1043" s="2" t="s">
-        <v>1042</v>
-      </c>
+      <c r="A1043"/>
     </row>
     <row r="1044" spans="1:1">
-      <c r="A1044" s="2" t="s">
-        <v>1043</v>
-      </c>
+      <c r="A1044"/>
     </row>
     <row r="1045" spans="1:1">
-      <c r="A1045" s="2" t="s">
-        <v>1044</v>
-      </c>
+      <c r="A1045"/>
     </row>
     <row r="1046" spans="1:1">
-      <c r="A1046" s="2" t="s">
-        <v>1045</v>
-      </c>
+      <c r="A1046"/>
     </row>
     <row r="1047" spans="1:1">
-      <c r="A1047" s="2" t="s">
-        <v>1046</v>
-      </c>
+      <c r="A1047"/>
     </row>
     <row r="1048" spans="1:1">
-      <c r="A1048" s="2" t="s">
-        <v>1047</v>
-      </c>
+      <c r="A1048"/>
     </row>
     <row r="1049" spans="1:1">
-      <c r="A1049" s="2" t="s">
-        <v>1048</v>
-      </c>
+      <c r="A1049"/>
     </row>
     <row r="1050" spans="1:1">
-      <c r="A1050" s="2" t="s">
-        <v>1049</v>
-      </c>
+      <c r="A1050"/>
     </row>
     <row r="1051" spans="1:1">
-      <c r="A1051" s="2" t="s">
-        <v>1050</v>
-      </c>
+      <c r="A1051"/>
     </row>
     <row r="1052" spans="1:1">
-      <c r="A1052" s="2" t="s">
-        <v>1051</v>
-      </c>
+      <c r="A1052"/>
     </row>
     <row r="1053" spans="1:1">
-      <c r="A1053" s="2" t="s">
-        <v>1052</v>
-      </c>
+      <c r="A1053"/>
     </row>
     <row r="1054" spans="1:1">
-      <c r="A1054" s="2" t="s">
-        <v>1053</v>
-      </c>
+      <c r="A1054"/>
     </row>
     <row r="1055" spans="1:1">
-      <c r="A1055" s="2" t="s">
-        <v>1054</v>
-      </c>
+      <c r="A1055"/>
     </row>
     <row r="1056" spans="1:1">
-      <c r="A1056" s="2" t="s">
-        <v>1055</v>
-      </c>
+      <c r="A1056"/>
     </row>
     <row r="1057" spans="1:1">
-      <c r="A1057" s="2" t="s">
-        <v>1056</v>
-      </c>
+      <c r="A1057"/>
     </row>
     <row r="1058" spans="1:1">
-      <c r="A1058" s="2" t="s">
-        <v>1057</v>
-      </c>
+      <c r="A1058"/>
     </row>
     <row r="1059" spans="1:1">
-      <c r="A1059" s="2" t="s">
-        <v>1058</v>
-      </c>
+      <c r="A1059"/>
     </row>
     <row r="1060" spans="1:1">
-      <c r="A1060" s="2" t="s">
-        <v>1059</v>
-      </c>
+      <c r="A1060"/>
     </row>
     <row r="1061" spans="1:1">
-      <c r="A1061" s="2" t="s">
-        <v>1060</v>
-      </c>
+      <c r="A1061"/>
     </row>
     <row r="1062" spans="1:1">
-      <c r="A1062" s="2" t="s">
-        <v>1061</v>
-      </c>
+      <c r="A1062"/>
     </row>
     <row r="1063" spans="1:1">
-      <c r="A1063" s="2" t="s">
-        <v>1062</v>
-      </c>
+      <c r="A1063"/>
     </row>
     <row r="1064" spans="1:1">
-      <c r="A1064" s="2" t="s">
-        <v>1063</v>
-      </c>
+      <c r="A1064"/>
     </row>
     <row r="1065" spans="1:1">
-      <c r="A1065" s="2" t="s">
-        <v>1064</v>
-      </c>
+      <c r="A1065"/>
     </row>
     <row r="1066" spans="1:1">
-      <c r="A1066" s="2" t="s">
-        <v>1065</v>
-      </c>
+      <c r="A1066"/>
     </row>
     <row r="1067" spans="1:1">
-      <c r="A1067" s="2" t="s">
-        <v>1066</v>
-      </c>
+      <c r="A1067"/>
     </row>
     <row r="1068" spans="1:1">
-      <c r="A1068" s="2" t="s">
-        <v>1067</v>
-      </c>
+      <c r="A1068"/>
     </row>
     <row r="1069" spans="1:1">
-      <c r="A1069" s="2" t="s">
-        <v>1068</v>
-      </c>
+      <c r="A1069"/>
     </row>
     <row r="1070" spans="1:1">
-      <c r="A1070" s="2" t="s">
-        <v>1069</v>
-      </c>
+      <c r="A1070"/>
     </row>
     <row r="1071" spans="1:1">
-      <c r="A1071" s="2" t="s">
-        <v>1070</v>
-      </c>
+      <c r="A1071"/>
     </row>
     <row r="1072" spans="1:1">
-      <c r="A1072" s="2" t="s">
-        <v>1071</v>
-      </c>
+      <c r="A1072"/>
     </row>
     <row r="1073" spans="1:1">
-      <c r="A1073" s="2" t="s">
-        <v>1072</v>
-      </c>
+      <c r="A1073"/>
     </row>
     <row r="1074" spans="1:1">
-      <c r="A1074" s="2" t="s">
-        <v>1073</v>
-      </c>
+      <c r="A1074"/>
     </row>
     <row r="1075" spans="1:1">
-      <c r="A1075" s="2" t="s">
-        <v>1074</v>
-      </c>
+      <c r="A1075"/>
     </row>
     <row r="1076" spans="1:1">
-      <c r="A1076" s="2" t="s">
-        <v>1075</v>
-      </c>
+      <c r="A1076"/>
     </row>
     <row r="1077" spans="1:1">
-      <c r="A1077" s="2" t="s">
-        <v>1076</v>
-      </c>
+      <c r="A1077"/>
     </row>
     <row r="1078" spans="1:1">
-      <c r="A1078" s="2" t="s">
-        <v>1077</v>
-      </c>
+      <c r="A1078"/>
     </row>
     <row r="1079" spans="1:1">
-      <c r="A1079" s="2" t="s">
-        <v>1078</v>
-      </c>
+      <c r="A1079"/>
     </row>
     <row r="1080" spans="1:1">
-      <c r="A1080" s="2" t="s">
-        <v>1079</v>
-      </c>
+      <c r="A1080"/>
     </row>
     <row r="1081" spans="1:1">
-      <c r="A1081" s="2" t="s">
-        <v>1080</v>
-      </c>
+      <c r="A1081"/>
     </row>
     <row r="1082" spans="1:1">
-      <c r="A1082" s="2" t="s">
-        <v>1081</v>
-      </c>
+      <c r="A1082"/>
     </row>
     <row r="1083" spans="1:1">
-      <c r="A1083" s="2" t="s">
-        <v>1082</v>
-      </c>
+      <c r="A1083"/>
     </row>
     <row r="1084" spans="1:1">
-      <c r="A1084" s="2" t="s">
-        <v>1083</v>
-      </c>
+      <c r="A1084"/>
     </row>
     <row r="1085" spans="1:1">
-      <c r="A1085" s="2" t="s">
-        <v>1084</v>
-      </c>
+      <c r="A1085"/>
     </row>
     <row r="1086" spans="1:1">
-      <c r="A1086" s="2" t="s">
-        <v>1085</v>
-      </c>
+      <c r="A1086"/>
     </row>
     <row r="1087" spans="1:1">
-      <c r="A1087" s="2" t="s">
-        <v>1086</v>
-      </c>
+      <c r="A1087"/>
     </row>
     <row r="1088" spans="1:1">
-      <c r="A1088" s="2" t="s">
-        <v>1087</v>
-      </c>
+      <c r="A1088"/>
     </row>
     <row r="1089" spans="1:1">
-      <c r="A1089" s="2" t="s">
-        <v>1088</v>
-      </c>
+      <c r="A1089"/>
     </row>
     <row r="1090" spans="1:1">
-      <c r="A1090" s="2" t="s">
-        <v>1089</v>
-      </c>
+      <c r="A1090"/>
     </row>
     <row r="1091" spans="1:1">
-      <c r="A1091" s="2" t="s">
-        <v>1090</v>
-      </c>
+      <c r="A1091"/>
     </row>
     <row r="1092" spans="1:1">
-      <c r="A1092" s="2" t="s">
-        <v>1091</v>
-      </c>
+      <c r="A1092"/>
     </row>
     <row r="1093" spans="1:1">
-      <c r="A1093" s="2" t="s">
-        <v>1092</v>
-      </c>
+      <c r="A1093"/>
     </row>
     <row r="1094" spans="1:1">
-      <c r="A1094" s="2" t="s">
-        <v>1093</v>
-      </c>
+      <c r="A1094"/>
     </row>
     <row r="1095" spans="1:1">
-      <c r="A1095" s="2" t="s">
-        <v>1094</v>
-      </c>
+      <c r="A1095"/>
     </row>
     <row r="1096" spans="1:1">
-      <c r="A1096" s="2" t="s">
-        <v>1095</v>
-      </c>
+      <c r="A1096"/>
     </row>
     <row r="1097" spans="1:1">
-      <c r="A1097" s="2" t="s">
-        <v>1096</v>
-      </c>
+      <c r="A1097"/>
     </row>
     <row r="1098" spans="1:1">
-      <c r="A1098" s="2" t="s">
-        <v>1097</v>
-      </c>
+      <c r="A1098"/>
     </row>
     <row r="1099" spans="1:1">
-      <c r="A1099" s="2" t="s">
-        <v>1098</v>
-      </c>
+      <c r="A1099"/>
     </row>
     <row r="1100" spans="1:1">
-      <c r="A1100" s="2" t="s">
-        <v>1099</v>
-      </c>
+      <c r="A1100"/>
     </row>
     <row r="1101" spans="1:1">
-      <c r="A1101" s="2" t="s">
-        <v>1100</v>
-      </c>
+      <c r="A1101"/>
     </row>
     <row r="1102" spans="1:1">
-      <c r="A1102" s="2" t="s">
-        <v>1101</v>
-      </c>
+      <c r="A1102"/>
     </row>
     <row r="1103" spans="1:1">
-      <c r="A1103" s="2" t="s">
-        <v>1102</v>
-      </c>
+      <c r="A1103"/>
     </row>
     <row r="1104" spans="1:1">
-      <c r="A1104" s="2" t="s">
-        <v>1103</v>
-      </c>
+      <c r="A1104"/>
     </row>
     <row r="1105" spans="1:1">
-      <c r="A1105" s="2" t="s">
-        <v>1104</v>
-      </c>
+      <c r="A1105"/>
     </row>
     <row r="1106" spans="1:1">
-      <c r="A1106" s="2" t="s">
-        <v>1105</v>
-      </c>
+      <c r="A1106"/>
     </row>
     <row r="1107" spans="1:1">
-      <c r="A1107" s="2" t="s">
-        <v>1106</v>
-      </c>
+      <c r="A1107"/>
     </row>
     <row r="1108" spans="1:1">
-      <c r="A1108" s="2" t="s">
-        <v>1107</v>
-      </c>
+      <c r="A1108"/>
     </row>
     <row r="1109" spans="1:1">
-      <c r="A1109" s="2" t="s">
-        <v>1108</v>
-      </c>
+      <c r="A1109"/>
     </row>
     <row r="1110" spans="1:1">
-      <c r="A1110" s="2" t="s">
-        <v>1109</v>
-      </c>
+      <c r="A1110"/>
     </row>
     <row r="1111" spans="1:1">
-      <c r="A1111" s="2" t="s">
-        <v>1110</v>
-      </c>
+      <c r="A1111"/>
     </row>
     <row r="1112" spans="1:1">
-      <c r="A1112" s="2" t="s">
-        <v>1111</v>
-      </c>
+      <c r="A1112"/>
     </row>
     <row r="1113" spans="1:1">
-      <c r="A1113" s="2" t="s">
-        <v>1112</v>
-      </c>
+      <c r="A1113"/>
     </row>
     <row r="1114" spans="1:1">
-      <c r="A1114" s="2" t="s">
-        <v>1113</v>
-      </c>
+      <c r="A1114"/>
     </row>
     <row r="1115" spans="1:1">
-      <c r="A1115" s="2" t="s">
-        <v>1114</v>
-      </c>
+      <c r="A1115"/>
     </row>
     <row r="1116" spans="1:1">
-      <c r="A1116" s="2" t="s">
-        <v>1115</v>
-      </c>
+      <c r="A1116"/>
     </row>
     <row r="1117" spans="1:1">
-      <c r="A1117" s="2" t="s">
-        <v>1116</v>
-      </c>
+      <c r="A1117"/>
     </row>
     <row r="1118" spans="1:1">
-      <c r="A1118" s="2" t="s">
-        <v>1117</v>
-      </c>
+      <c r="A1118"/>
     </row>
     <row r="1119" spans="1:1">
-      <c r="A1119" s="2" t="s">
-        <v>1118</v>
-      </c>
+      <c r="A1119"/>
     </row>
     <row r="1120" spans="1:1">
-      <c r="A1120" s="2" t="s">
-        <v>1119</v>
-      </c>
+      <c r="A1120"/>
     </row>
     <row r="1121" spans="1:1">
-      <c r="A1121" s="2" t="s">
-        <v>1120</v>
-      </c>
+      <c r="A1121"/>
     </row>
     <row r="1122" spans="1:1">
-      <c r="A1122" s="2" t="s">
-        <v>1121</v>
-      </c>
+      <c r="A1122"/>
     </row>
     <row r="1123" spans="1:1">
-      <c r="A1123" s="2" t="s">
-        <v>1122</v>
-      </c>
+      <c r="A1123"/>
     </row>
     <row r="1124" spans="1:1">
-      <c r="A1124" s="2" t="s">
-        <v>1123</v>
-      </c>
+      <c r="A1124"/>
     </row>
     <row r="1125" spans="1:1">
-      <c r="A1125" s="2" t="s">
-        <v>1124</v>
-      </c>
+      <c r="A1125"/>
     </row>
     <row r="1126" spans="1:1">
-      <c r="A1126" s="2" t="s">
-        <v>1125</v>
-      </c>
+      <c r="A1126"/>
     </row>
     <row r="1127" spans="1:1">
-      <c r="A1127" s="2" t="s">
-        <v>1126</v>
-      </c>
+      <c r="A1127"/>
     </row>
     <row r="1128" spans="1:1">
-      <c r="A1128" s="2" t="s">
-        <v>1127</v>
-      </c>
+      <c r="A1128"/>
     </row>
     <row r="1129" spans="1:1">
-      <c r="A1129" s="2" t="s">
-        <v>1128</v>
-      </c>
+      <c r="A1129"/>
     </row>
     <row r="1130" spans="1:1">
-      <c r="A1130" s="2" t="s">
-        <v>1129</v>
-      </c>
+      <c r="A1130"/>
     </row>
     <row r="1131" spans="1:1">
-      <c r="A1131" s="2" t="s">
-        <v>1130</v>
-      </c>
+      <c r="A1131"/>
     </row>
     <row r="1132" spans="1:1">
-      <c r="A1132" s="2" t="s">
-        <v>1131</v>
-      </c>
+      <c r="A1132"/>
     </row>
     <row r="1133" spans="1:1">
-      <c r="A1133" s="2" t="s">
-        <v>1132</v>
-      </c>
+      <c r="A1133"/>
     </row>
     <row r="1134" spans="1:1">
-      <c r="A1134" s="2" t="s">
-        <v>1133</v>
-      </c>
+      <c r="A1134"/>
     </row>
     <row r="1135" spans="1:1">
-      <c r="A1135" s="2" t="s">
-        <v>1134</v>
-      </c>
+      <c r="A1135"/>
     </row>
     <row r="1136" spans="1:1">
-      <c r="A1136" s="2" t="s">
-        <v>1135</v>
-      </c>
+      <c r="A1136"/>
+    </row>
+    <row r="1137" spans="1:1">
+      <c r="A1137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
